--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\dashboard_finance_metrics\assets\valuation_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CCE688-09F2-4492-9C40-B4F2EADD27EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D6695C-0980-4D82-902F-37E844DA93F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="2970" windowWidth="23445" windowHeight="11385" tabRatio="722" activeTab="8" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="722" activeTab="2" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Names" sheetId="5" r:id="rId1"/>
@@ -30,22 +30,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Descending Helper'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Formula!$A$1:$E$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Formula!$A$1:$E$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Industries!$A$1:$B$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -87,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="631">
   <si>
     <t>is.net_revenue</t>
   </si>
@@ -764,1014 +756,1223 @@
     <t>(curr_adj_equity-prev_adj_equity)/prev_adj_equity</t>
   </si>
   <si>
-    <t>((q_df.loc[index,'bs.total_shareholder_equity']+abs(q_df.loc[index,'bs.treasury_stock']))-(q_df.loc[index-1,'bs.total_shareholder_equity']+abs(q_df.loc[index-1,'bs.treasury_stock'])))/(q_df.loc[index-1,'bs.total_shareholder_equity']+abs(q_df.loc[index-1,'bs.treasury_stock']))</t>
-  </si>
-  <si>
     <t>FCFF1 = CFO1 + Int1(1 – Tax rate1) – FCInv1; FCFF0 = CFO0 + Int0(1 – Tax rate0) – FCInv0; (FCFF1-FCFF0)/FCFF0</t>
   </si>
   <si>
-    <t>(91*Avg_Inventory)/COGS</t>
-  </si>
-  <si>
-    <t>91*((q_df.loc[index,'bs.inventories']+q_df.loc[index-1,'bs.inventories'])/2)/q_df.loc[index,'is.cost_of_sales']</t>
-  </si>
-  <si>
-    <t>91*((q_df.loc[index,'bs.account_receivable']+q_df.loc[index-1,'bs.account_receivable'])/2)/q_df.loc[index,'is.net_revenue']</t>
-  </si>
-  <si>
-    <t>(91*Avg_AR)/Revenue</t>
-  </si>
-  <si>
-    <t>(91*Avg_AP)/Revenue</t>
-  </si>
-  <si>
-    <t>91*((q_df.loc[index,'bs.accounts_payable']+q_df.loc[index-1,'bs.accounts_payable'])/2)/q_df.loc[index,'is.net_revenue']</t>
-  </si>
-  <si>
     <t>Days of Inventory + Days of Sales Outstanding - Days of Payable</t>
   </si>
   <si>
-    <t xml:space="preserve">(91*((q_df.loc[index,'bs.inventories']+q_df.loc[index-1,'bs.inventories'])/2)/q_df.loc[index,'is.cost_of_sales'])+(91*((q_df.loc[index,'bs.account_receivable']+q_df.loc[index-1,'bs.account_receivable'])/2)/q_df.loc[index,'is.net_revenue'])-(91*((q_df.loc[index,'bs.accounts_payable']+q_df.loc[index-1,'bs.accounts_payable'])/2)/q_df.loc[index,'is.net_revenue'])
+    <t>q_df.loc[index,'is.net_revenue']/(((q_df.loc[index,'bs.total_current_assets']-q_df.loc[index,'bs.total_current_liabilities'])+(q_df.loc[index-1,'bs.total_current_assets']-q_df.loc[index-1,'bs.total_current_liabilities']))/2)</t>
+  </si>
+  <si>
+    <t>Revenue / Average Working Capital</t>
+  </si>
+  <si>
+    <t>q_df.loc[index,'is.net_revenue']/((q_df.loc[index,'bs.total_assets']+q_df.loc[index-1,'bs.total_assets'])/2)</t>
+  </si>
+  <si>
+    <t>Revenue / Average Total Asset</t>
+  </si>
+  <si>
+    <t>(cash+st_investment+AR)/Current_Liability</t>
+  </si>
+  <si>
+    <t>(cash+st_investment)/Current_Liability</t>
+  </si>
+  <si>
+    <t>Total_Debt/Total_Asset</t>
+  </si>
+  <si>
+    <t>Total_Debt/Total_Equity</t>
+  </si>
+  <si>
+    <t>Total_Debt/(Total_Debt+Total_Equity)</t>
+  </si>
+  <si>
+    <t>Avg_Total_Asset/Avg_Total_Equity</t>
+  </si>
+  <si>
+    <t>Interest_exp/Op_income</t>
+  </si>
+  <si>
+    <t>Gross_profit/Rev</t>
+  </si>
+  <si>
+    <t>Op_income/Rev</t>
+  </si>
+  <si>
+    <t>(Op_income+Depreciation+Amortization)/Rev</t>
+  </si>
+  <si>
+    <t>Net_Income/Rev</t>
+  </si>
+  <si>
+    <t>Net_income/Avg_Total_Equity</t>
+  </si>
+  <si>
+    <t>Net_Income/Avg_Total_Asset</t>
+  </si>
+  <si>
+    <t>SG&amp;A/Gross_Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D/Gross_Profit</t>
+  </si>
+  <si>
+    <t>Depreciation/Gross_Profit</t>
+  </si>
+  <si>
+    <t>(Debt1-Debt0)/Debt0</t>
+  </si>
+  <si>
+    <t>(Cash1-Cash0)/Cash0</t>
+  </si>
+  <si>
+    <t>(Num_shares1-Num_shares0)/Num_shares0</t>
+  </si>
+  <si>
+    <t>(Inventory1-Inventory0)/Inventory0</t>
+  </si>
+  <si>
+    <t>(PP&amp;E1-PP&amp;E0)/PP&amp;E0</t>
+  </si>
+  <si>
+    <t>(Goodwill1-Goodwill0)/Goodwill0</t>
+  </si>
+  <si>
+    <t>(Asset1-Asset0)/Asset0</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'bs.total_assets']+q_df.loc[index-1,'bs.total_assets'])/(q_df.loc[index,'bs.total_shareholder_equity']+q_df.loc[index-1,'bs.total_shareholder_equity'])</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])/q_df.loc[index,'is.net_revenue']</t>
+  </si>
+  <si>
+    <t>q_df.loc[index,'is.net_income']/q_df.loc[index,'is.net_revenue']</t>
+  </si>
+  <si>
+    <t>q_df.loc[index,'is.net_income']/((q_df.loc[index,'bs.total_assets']+q_df.loc[index-1,'bs.total_assets'])/2)</t>
+  </si>
+  <si>
+    <t>q_df.loc[index,'is.net_income']/((q_df.loc[index,'bs.total_shareholder_equity']+q_df.loc[index-1,'bs.total_shareholder_equity'])/2)</t>
+  </si>
+  <si>
+    <t>q_df.loc[index,'is.r_and_d']/(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'bs.cash_n_equivalent']-q_df.loc[index-1,'bs.cash_n_equivalent'])/q_df.loc[index-1,'bs.cash_n_equivalent']</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'bs.pp_and_e']-q_df.loc[index-1,'bs.pp_and_e'])/q_df.loc[index-1,'bs.pp_and_e']</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'bs.total_assets']-q_df.loc[index-1,'bs.total_assets'])/q_df.loc[index-1,'bs.total_assets']</t>
+  </si>
+  <si>
+    <t>Unfavorable_Growth_Item</t>
+  </si>
+  <si>
+    <t>Convertible long-term debt</t>
+  </si>
+  <si>
+    <t>Net cash provided by operating activities, net of effect of acquisition</t>
+  </si>
+  <si>
+    <t>Shares used in diluted per share computation</t>
+  </si>
+  <si>
+    <t>$ in Millions</t>
+  </si>
+  <si>
+    <t>In Millions</t>
+  </si>
+  <si>
+    <t>In Thousands</t>
+  </si>
+  <si>
+    <t>shares in Millions</t>
+  </si>
+  <si>
+    <t>In Millions, except Per Share</t>
+  </si>
+  <si>
+    <t>shares in Thousands</t>
+  </si>
+  <si>
+    <t>In Thousands, except Per Share data</t>
+  </si>
+  <si>
+    <t>In Thousands, except Share data</t>
+  </si>
+  <si>
+    <t>Share data in Thousands, except Per Share data, unless otherwise specified</t>
+  </si>
+  <si>
+    <t>Marketing, general, and administrative</t>
+  </si>
+  <si>
+    <t>Property, plant and equipment at cost</t>
+  </si>
+  <si>
+    <t>Cash flows from operating activities</t>
+  </si>
+  <si>
+    <t>Operating profit</t>
+  </si>
+  <si>
+    <t>Net cash provided by operations</t>
+  </si>
+  <si>
+    <t>Interest and other expense</t>
+  </si>
+  <si>
+    <t>Total shareholders’ equity</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'is.num_shares_diluted']-q_df.loc[index-1,'is.num_shares_diluted'])/q_df.loc[index-1,'is.num_shares_diluted']</t>
+  </si>
+  <si>
+    <t>Capital expenditures and intangible assets</t>
+  </si>
+  <si>
+    <t>Number of shares used in per share calculations</t>
+  </si>
+  <si>
+    <t>Net (loss) income</t>
+  </si>
+  <si>
+    <t>$ in Thousands</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Basic earnings per share of common stock</t>
+  </si>
+  <si>
+    <t>Diluted earnings per share of common stock</t>
+  </si>
+  <si>
+    <t>Earnings per share—Basic</t>
+  </si>
+  <si>
+    <t>Earnings per share—Diluted</t>
+  </si>
+  <si>
+    <t>Earnings per share attributable to Intel—basic</t>
+  </si>
+  <si>
+    <t>Earnings per share attributable to Intel—diluted</t>
+  </si>
+  <si>
+    <t>Weighted-average shares</t>
+  </si>
+  <si>
+    <t>Weighted-average shares used in per share calculations</t>
+  </si>
+  <si>
+    <t>Expenditures for property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Earnings per share</t>
+  </si>
+  <si>
+    <t>Weighted average number of shares</t>
+  </si>
+  <si>
+    <t>Capital expenditures, net</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Interest and other expenses</t>
+  </si>
+  <si>
+    <t>Less: short-term debt</t>
+  </si>
+  <si>
+    <t>Short-term and current portion of long-term debt</t>
+  </si>
+  <si>
+    <t>Available-for-sale Securities</t>
+  </si>
+  <si>
+    <t>Weighted average shares outstanding</t>
+  </si>
+  <si>
+    <t>Current portion of long-term debt, convertible notes, and capital leases</t>
+  </si>
+  <si>
+    <t>Long-term debt, convertible notes, and capital leases</t>
+  </si>
+  <si>
+    <t>Current portion of convertible notes and capital leases</t>
+  </si>
+  <si>
+    <t>Senior notes, convertible notes, and capital leases, less current portion</t>
+  </si>
+  <si>
+    <t>Current portion of convertible notes, capital leases, and commercial paper</t>
+  </si>
+  <si>
+    <t>Long-term debt and capital leases, less current portion</t>
+  </si>
+  <si>
+    <t>Commercial paper and current portion of convertible notes and capital leases</t>
+  </si>
+  <si>
+    <t>Current portion of convertible notes and finance leases</t>
+  </si>
+  <si>
+    <t>Senior notes, convertible notes, and finance leases, less current portion</t>
+  </si>
+  <si>
+    <t>Current portion of convertible notes, and capital leases; and commercial paper</t>
+  </si>
+  <si>
+    <t>Current portion of long-term debt and finance lease obligations</t>
+  </si>
+  <si>
+    <t>Long-term debt and finance lease obligations, less current portion</t>
+  </si>
+  <si>
+    <t>Net property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Debt, Current</t>
+  </si>
+  <si>
+    <t>Selling, marketing, general and administrative</t>
+  </si>
+  <si>
+    <t>Shares used to compute earnings per share – diluted</t>
+  </si>
+  <si>
+    <t>Basic earnings per share</t>
+  </si>
+  <si>
+    <t>Diluted earnings per share</t>
+  </si>
+  <si>
+    <t>Operating income from continuing operations</t>
+  </si>
+  <si>
+    <t>Accounts payable and accrued expenses</t>
+  </si>
+  <si>
+    <t>Income tax benefit</t>
+  </si>
+  <si>
+    <t>Inventory, Net</t>
+  </si>
+  <si>
+    <t>Basic earnings per common share</t>
+  </si>
+  <si>
+    <t>Diluted earnings per common share</t>
+  </si>
+  <si>
+    <t>Basic and diluted earnings per share</t>
+  </si>
+  <si>
+    <t>Loss per common share, basic and diluted</t>
+  </si>
+  <si>
+    <t>Denominator for diluted earnings per share</t>
+  </si>
+  <si>
+    <t>Average shares outstanding</t>
+  </si>
+  <si>
+    <t>Earnings per common share diluted</t>
+  </si>
+  <si>
+    <t>Shares used to compute earnings per share - Diluted</t>
+  </si>
+  <si>
+    <t>Shares used to compute earnings per common share – diluted</t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>Costs of revenues</t>
+  </si>
+  <si>
+    <t>Weighted-average number of shares</t>
+  </si>
+  <si>
+    <t>Purchase of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Cost of product revenues</t>
+  </si>
+  <si>
+    <t>Weighted average common shares outstanding</t>
+  </si>
+  <si>
+    <t>Cost of revenues</t>
+  </si>
+  <si>
+    <t>Weighted-average common shares outstanding</t>
+  </si>
+  <si>
+    <t>Weighted-average shares of common stock outstanding</t>
+  </si>
+  <si>
+    <t>Short-term borrowings and current portion of long-term debt</t>
+  </si>
+  <si>
+    <t>Payments for property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Net income attributable to Amkor per common share</t>
+  </si>
+  <si>
+    <t>Shares used in computing per common share amounts</t>
+  </si>
+  <si>
+    <t>Weighted Average Number of Shares Outstanding, Diluted</t>
+  </si>
+  <si>
+    <t>Junior convertible debentures</t>
+  </si>
+  <si>
+    <t>Share data in Thousands, except Per Share data</t>
+  </si>
+  <si>
+    <t>Net income from continuing operations</t>
+  </si>
+  <si>
+    <t>Basic net income per common share attributable to Microchip Technology stockholders</t>
+  </si>
+  <si>
+    <t>Diluted common shares outstanding</t>
+  </si>
+  <si>
+    <t>Basic net income per common share - continuing operations</t>
+  </si>
+  <si>
+    <t>Basic net income from continuing operations, per common share</t>
+  </si>
+  <si>
+    <t>Diluted net income from continuing operations, per common share</t>
+  </si>
+  <si>
+    <t>Basic net income per common share</t>
+  </si>
+  <si>
+    <t>Diluted net income per common share</t>
+  </si>
+  <si>
+    <t>Basic net income per common share from continuing operations</t>
+  </si>
+  <si>
+    <t>Diluted net income per common share from continuing operations</t>
+  </si>
+  <si>
+    <t>Long-term debt, less current maturities</t>
+  </si>
+  <si>
+    <t>Cost of Goods and Services Sold</t>
+  </si>
+  <si>
+    <t>Revenue from Contract with Customer, Excluding Assessed Tax</t>
+  </si>
+  <si>
+    <t>Weighted average shares</t>
+  </si>
+  <si>
+    <t>Net Cash Provided by Operating Activities, Continuing Operations</t>
+  </si>
+  <si>
+    <t>Current portion of long-term debt, net of unamortized discount</t>
+  </si>
+  <si>
+    <t>Long-term debt, net of unamortized issuance costs</t>
+  </si>
+  <si>
+    <t>Purchase of property and equipment</t>
+  </si>
+  <si>
+    <t>Weighted average shares of common stock outstanding</t>
+  </si>
+  <si>
+    <t>Loss from operations</t>
+  </si>
+  <si>
+    <t>Selling, General and Administrative Expense</t>
+  </si>
+  <si>
+    <t>Research and Development Expense</t>
+  </si>
+  <si>
+    <t>Long-Term Debt, Excluding Current Maturities</t>
+  </si>
+  <si>
+    <t>Goodwill and acquired intangible assets, net</t>
+  </si>
+  <si>
+    <t>Net income per share - Basic</t>
+  </si>
+  <si>
+    <t>Net income per share - Diluted</t>
+  </si>
+  <si>
+    <t>Net loss per share - Basic</t>
+  </si>
+  <si>
+    <t>Net loss per share - Diluted</t>
+  </si>
+  <si>
+    <t>Benefit for income taxes</t>
+  </si>
+  <si>
+    <t>Goodwill and other intangible assets, net</t>
+  </si>
+  <si>
+    <t>Depreciation, amortization and other impairment charges</t>
+  </si>
+  <si>
+    <t>Earnings per share attributable to the shareholders of Flex Ltd.</t>
+  </si>
+  <si>
+    <t>Selling, general and administrative expenses</t>
+  </si>
+  <si>
+    <t>Weighted-average shares used in computing per share amounts</t>
+  </si>
+  <si>
+    <t>Consolidated Statements of Earnings</t>
+  </si>
+  <si>
+    <t>RENEWABLE_ENERGY</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR, INC.</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Accumulated earnings</t>
+  </si>
+  <si>
+    <t>Weighted-average number of shares used in per share calculations</t>
+  </si>
+  <si>
+    <t>Total income tax expense</t>
+  </si>
+  <si>
+    <t>Interest expense, net</t>
+  </si>
+  <si>
+    <t>Statement of Cash Flows (Details)</t>
+  </si>
+  <si>
+    <t>Depreciation, amortization, and accretion</t>
+  </si>
+  <si>
+    <t>Depreciation, amortization and accretion</t>
+  </si>
+  <si>
+    <t>Total stockholders equity</t>
+  </si>
+  <si>
+    <t>(curr_eps-prev_eps)/abs(prev_eps)</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'is.eps_basic']-q_df.loc[index-1,'is.eps_basic'])/abs(q_df.loc[index-1,'is.eps_basic'])</t>
+  </si>
+  <si>
+    <t>days_inventory_on_hand</t>
+  </si>
+  <si>
+    <t>days_sales_outstanding</t>
+  </si>
+  <si>
+    <t>days_payable</t>
+  </si>
+  <si>
+    <t>cash_conversion_cycle</t>
+  </si>
+  <si>
+    <t>working_capital_turnover</t>
+  </si>
+  <si>
+    <t>total_asset_turnover</t>
+  </si>
+  <si>
+    <t>quick_ratio</t>
+  </si>
+  <si>
+    <t>cash_ratio</t>
+  </si>
+  <si>
+    <t>debt_to_asset</t>
+  </si>
+  <si>
+    <t>debt_to_capital</t>
+  </si>
+  <si>
+    <t>debt_to_equity</t>
+  </si>
+  <si>
+    <t>financial_leverage</t>
+  </si>
+  <si>
+    <t>interest_ratio</t>
+  </si>
+  <si>
+    <t>gross_profit_margin</t>
+  </si>
+  <si>
+    <t>operating_profit_margin</t>
+  </si>
+  <si>
+    <t>ebitda_margin</t>
+  </si>
+  <si>
+    <t>net_profit_margin</t>
+  </si>
+  <si>
+    <t>return_on_asset</t>
+  </si>
+  <si>
+    <t>return_on_equity</t>
+  </si>
+  <si>
+    <t>depreciation_ratio</t>
+  </si>
+  <si>
+    <t>cash_growth_rate</t>
+  </si>
+  <si>
+    <t>debt_growth_rate</t>
+  </si>
+  <si>
+    <t>outstanding_shares_growth_rate</t>
+  </si>
+  <si>
+    <t>inventory_growth_rate</t>
+  </si>
+  <si>
+    <t>goodwill_growth_rate</t>
+  </si>
+  <si>
+    <t>total_asset_growth_rate</t>
+  </si>
+  <si>
+    <t>sg_a_ratio</t>
+  </si>
+  <si>
+    <t>r_d_ratio</t>
+  </si>
+  <si>
+    <t>revenue_growth_rate</t>
+  </si>
+  <si>
+    <t>return_on_invested_capital_rate</t>
+  </si>
+  <si>
+    <t>eps_growth_rate</t>
+  </si>
+  <si>
+    <t>adj_equity_growth_rate</t>
+  </si>
+  <si>
+    <t>free_cashflow_growth_rate</t>
+  </si>
+  <si>
+    <t>Formula_Shortname</t>
+  </si>
+  <si>
+    <t>Formula_Category</t>
+  </si>
+  <si>
+    <t>Efficiency Ratio</t>
+  </si>
+  <si>
+    <t>Liquidity Ratio</t>
+  </si>
+  <si>
+    <t>Solvency Ratio</t>
+  </si>
+  <si>
+    <t>Profitability Ratio</t>
+  </si>
+  <si>
+    <t>Miscellaneous Ratio</t>
+  </si>
+  <si>
+    <t>Key Ratio</t>
+  </si>
+  <si>
+    <t>Days of Inventory on Hand</t>
+  </si>
+  <si>
+    <t>Days of Sales Outstanding</t>
+  </si>
+  <si>
+    <t>Days of Payable</t>
+  </si>
+  <si>
+    <t>Cash conversion cycle</t>
+  </si>
+  <si>
+    <t>Working Capital Turnover</t>
+  </si>
+  <si>
+    <t>Total Asset Turnover</t>
+  </si>
+  <si>
+    <t>Quick Ratio</t>
+  </si>
+  <si>
+    <t>Cash Ratio</t>
+  </si>
+  <si>
+    <t>Debt to Asset</t>
+  </si>
+  <si>
+    <t>Debt to Capital</t>
+  </si>
+  <si>
+    <t>Debt to Equity</t>
+  </si>
+  <si>
+    <t>pp_e_growth_rate</t>
+  </si>
+  <si>
+    <t>Financial Leverage</t>
+  </si>
+  <si>
+    <t>Interest Ratio</t>
+  </si>
+  <si>
+    <t>Gross Profit Margin</t>
+  </si>
+  <si>
+    <t>Operating Profit Margin</t>
+  </si>
+  <si>
+    <t>EBITDA Margin</t>
+  </si>
+  <si>
+    <t>Net Profit Margin</t>
+  </si>
+  <si>
+    <t>Return on Asset</t>
+  </si>
+  <si>
+    <t>Return on Equity</t>
+  </si>
+  <si>
+    <t>SG&amp;A Ratio</t>
+  </si>
+  <si>
+    <t>R&amp;D Ratio</t>
+  </si>
+  <si>
+    <t>Depreciation Ratio</t>
+  </si>
+  <si>
+    <t>Cash Growth Rate</t>
+  </si>
+  <si>
+    <t>Debt Growth Rate</t>
+  </si>
+  <si>
+    <t>Outstanding Shares Growth Rate</t>
+  </si>
+  <si>
+    <t>Inventory Growth Rate</t>
+  </si>
+  <si>
+    <t>PP&amp;E Growth Rate</t>
+  </si>
+  <si>
+    <t>Goodwill Growth Rate</t>
+  </si>
+  <si>
+    <t>Total Asset Growth Rate</t>
+  </si>
+  <si>
+    <t>formula_type</t>
+  </si>
+  <si>
+    <t>formula_direction</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>AccountsReceivableNetCurrent</t>
+  </si>
+  <si>
+    <t>InventoryNet</t>
+  </si>
+  <si>
+    <t>AssetsCurrent</t>
+  </si>
+  <si>
+    <t>CashAndCashEquivalentsAtCarryingValue</t>
+  </si>
+  <si>
+    <t>ShortTermInvestments</t>
+  </si>
+  <si>
+    <t>PropertyPlantAndEquipmentNet</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>StockholdersEquity</t>
+  </si>
+  <si>
+    <t>LongTermDebtNoncurrent</t>
+  </si>
+  <si>
+    <t>AccountsPayableCurrent</t>
+  </si>
+  <si>
+    <t>LiabilitiesCurrent</t>
+  </si>
+  <si>
+    <t>TreasuryStockValue</t>
+  </si>
+  <si>
+    <t>RetainedEarningsAccumulatedDeficit</t>
+  </si>
+  <si>
+    <t>bs.total_liabilities_and_equity</t>
+  </si>
+  <si>
+    <t>LiabilitiesAndStockholdersEquity</t>
+  </si>
+  <si>
+    <t>OtherDepreciationAndAmortization</t>
+  </si>
+  <si>
+    <t>NetCashProvidedByUsedInOperatingActivities</t>
+  </si>
+  <si>
+    <t>CapitalExpendituresIncurredButNotYetPaid</t>
+  </si>
+  <si>
+    <t>RevenueFromContractWithCustomerExcludingAssessedTax</t>
+  </si>
+  <si>
+    <t>CostOfGoodsAndServiceExcludingDepreciationDepletionAndAmortization</t>
+  </si>
+  <si>
+    <t>ResearchAndDevelopmentExpense</t>
+  </si>
+  <si>
+    <t>SellingGeneralAndAdministrativeExpense</t>
+  </si>
+  <si>
+    <t>OperatingIncomeLoss</t>
+  </si>
+  <si>
+    <t>InterestExpense</t>
+  </si>
+  <si>
+    <t>IncomeTaxExpenseBenefit</t>
+  </si>
+  <si>
+    <t>NetIncomeLoss</t>
+  </si>
+  <si>
+    <t>EarningsPerShareBasic</t>
+  </si>
+  <si>
+    <t>EarningsPerShareDiluted</t>
+  </si>
+  <si>
+    <t>WeightedAverageNumberOfDilutedSharesOutstanding</t>
+  </si>
+  <si>
+    <t>SalesRevenueNet</t>
+  </si>
+  <si>
+    <t>CostOfGoodsSold</t>
+  </si>
+  <si>
+    <t>DepreciationDepletionAndAmortization</t>
+  </si>
+  <si>
+    <t>CostOfGoodsAndServicesSold</t>
+  </si>
+  <si>
+    <t>AvailableForSaleSecuritiesCurrent</t>
+  </si>
+  <si>
+    <t>AvailableForSaleSecuritiesDebtSecuritiesCurrent</t>
+  </si>
+  <si>
+    <t>RestrictedCashAndCashEquivalents</t>
+  </si>
+  <si>
+    <t>RestrictedCashAndCashEquivalentsAtCarryingValue</t>
+  </si>
+  <si>
+    <t>RestrictedCashAndInvestmentsNoncurrent</t>
+  </si>
+  <si>
+    <t>MarketableSecurities</t>
+  </si>
+  <si>
+    <t>MarketableSecuritiesCurrent</t>
+  </si>
+  <si>
+    <t>AccountsAndNotesReceivableNet</t>
+  </si>
+  <si>
+    <t>AccountsNotesAndLoansReceivableNetCurrent</t>
+  </si>
+  <si>
+    <t>AccountsReceivableNet</t>
+  </si>
+  <si>
+    <t>AccountsReceivableGrossCurrent</t>
+  </si>
+  <si>
+    <t>bs.total_debt</t>
+  </si>
+  <si>
+    <t>DepreciationAmortizationAndAccretionNet</t>
+  </si>
+  <si>
+    <t>DepreciationAndAmortization</t>
+  </si>
+  <si>
+    <t>LongTermDebt</t>
+  </si>
+  <si>
+    <t>LongTermDebtCurrent</t>
+  </si>
+  <si>
+    <t>LongTermDebtAndCapitalLeaseObligations</t>
+  </si>
+  <si>
+    <t>DebtAndCapitalLeaseObligations</t>
+  </si>
+  <si>
+    <t>LongTermDebtAndCapitalLeaseObligationsCurrent</t>
+  </si>
+  <si>
+    <t>CommercialPaper</t>
+  </si>
+  <si>
+    <t>365*((q_df.loc[index,'bs.account_receivable']+q_df.loc[index-1,'bs.account_receivable'])/2)/q_df.loc[index,'is.net_revenue']</t>
+  </si>
+  <si>
+    <t>(365*Avg_Inventory)/COGS</t>
+  </si>
+  <si>
+    <t>(365*Avg_AR)/Revenue</t>
+  </si>
+  <si>
+    <t>(365*Avg_AP)/Revenue</t>
+  </si>
+  <si>
+    <t>ReceivablesNetCurrent</t>
+  </si>
+  <si>
+    <t>PaymentsToAcquireProductiveAssets</t>
+  </si>
+  <si>
+    <t>NetCashProvidedByUsedInOperatingActivitiesContinuingOperations</t>
+  </si>
+  <si>
+    <t>AmortizationOfIntangibleAssetsIncludingInventoryStepUp</t>
+  </si>
+  <si>
+    <t>IncomeLossFromContinuingOperationsPerBasicShare</t>
+  </si>
+  <si>
+    <t>AmortizationOfIntangibleAssets</t>
+  </si>
+  <si>
+    <t>((q_df.loc[index,'bs.total_shareholder_equity']+abs(ad(q_df,index,'bs.treasury_stock')))-(q_df.loc[index-1,'bs.total_shareholder_equity']+abs(ad(q_df,index-1,'bs.treasury_stock'))))/(q_df.loc[index-1,'bs.total_shareholder_equity']+abs(ad(q_df,index-1,'bs.treasury_stock')))</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'bs.cash_n_equivalent']+ ad(q_df,index,'bs.st_investment')+q_df.loc[index,'bs.account_receivable'])/q_df.loc[index,'bs.total_current_liabilities']</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index, 'bs.cash_n_equivalent'] + ad(q_df,index,'bs.st_investment'))/q_df.loc[index, 'bs.total_current_liabilities']</t>
+  </si>
+  <si>
+    <t>((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization'])/(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])</t>
+  </si>
+  <si>
+    <t>SellingAndMarketingExpense</t>
+  </si>
+  <si>
+    <t>is.selling</t>
+  </si>
+  <si>
+    <t>is.g_and_a</t>
+  </si>
+  <si>
+    <t>GeneralAndAdministrativeExpense</t>
+  </si>
+  <si>
+    <t>((ad(q_df,index,'is.selling')+ad(q_df,index,'is.g_and_a')) if ad(q_df,index,'is.sg_and_a')==0 else q_df.loc[index,'is.sg_and_a'])/(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])</t>
+  </si>
+  <si>
+    <t>CashCashEquivalentsRestrictedCashAndRestrictedCashEquivalents</t>
+  </si>
+  <si>
+    <t>bs.current_debt</t>
+  </si>
+  <si>
+    <t>bs.non_current_debt</t>
+  </si>
+  <si>
+    <t>bs.cp_debt</t>
+  </si>
+  <si>
+    <t>CostOfRevenue</t>
+  </si>
+  <si>
+    <t>InterestAndDebtExpense</t>
+  </si>
+  <si>
+    <t>ManufacturingCosts</t>
+  </si>
+  <si>
+    <t>SalesRevenueGoodsNet</t>
+  </si>
+  <si>
+    <t>365*((ad(q_df,index,'bs.accounts_payable')+ad(q_df,index-1,'bs.accounts_payable'))/2)/q_df.loc[index,'is.net_revenue']</t>
+  </si>
+  <si>
+    <t>ResearchAndDevelopmentExpenseExcludingAcquiredInProcessCost</t>
+  </si>
+  <si>
+    <t>is.ebt</t>
+  </si>
+  <si>
+    <t>IncomeLossFromContinuingOperationsBeforeIncomeTaxesMinorityInterestAndIncomeLossFromEquityMethodInvestments</t>
+  </si>
+  <si>
+    <t>abs(ad(q_df,index,'is.interest_expense'))/((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])</t>
+  </si>
+  <si>
+    <t>((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])/q_df.loc[index,'is.net_revenue']</t>
+  </si>
+  <si>
+    <t>IncomeLossFromContinuingOperationsBeforeIncomeTaxesExtraordinaryItemsNoncontrollingInterest</t>
+  </si>
+  <si>
+    <t>(((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])+((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization']))/q_df.loc[index,'is.net_revenue']</t>
+  </si>
+  <si>
+    <t>AccountsPayableAndAccruedLiabilitiesCurrent</t>
+  </si>
+  <si>
+    <t>PropertyPlantAndEquipmentAndFinanceLeaseRightOfUseAssetAfterAccumulatedDepreciationAndAmortization</t>
+  </si>
+  <si>
+    <t>999 if (ad(q_df,index,'bs.goodwill')-ad(q_df,index-1,'bs.goodwill'))/(1 if ad(q_df,index-1,'bs.goodwill')==0 else ad(q_df,index-1,'bs.goodwill'))&gt;999 else (ad(q_df,index,'bs.goodwill')-ad(q_df,index-1,'bs.goodwill'))/(1 if ad(q_df,index-1,'bs.goodwill')==0 else ad(q_df,index-1,'bs.goodwill'))</t>
+  </si>
+  <si>
+    <t>LongTermLineOfCredit</t>
+  </si>
+  <si>
+    <t>ConvertibleDebtNoncurrent</t>
+  </si>
+  <si>
+    <t>ConvertibleSubordinatedDebtNoncurrent</t>
+  </si>
+  <si>
+    <t>bs.other_debt_1</t>
+  </si>
+  <si>
+    <t>bs.other_debt_2</t>
+  </si>
+  <si>
+    <t>(ad(q_df,index,'bs.cp_debt')+ad(q_df,index,'bs.other_debt_1')+ad(q_df,index,'bs.other_debt_2')+(ad(q_df,index,'bs.total_debt') if ad(q_df,index,'bs.total_debt') &gt; (ad(q_df,index,'bs.current_debt')+ad(q_df,index,'bs.non_current_debt')) else (ad(q_df,index,'bs.current_debt')+ad(q_df,index,'bs.non_current_debt'))))/q_df.loc[index,'bs.total_assets']</t>
+  </si>
+  <si>
+    <t>(ad(q_df,index,'bs.cp_debt')+ad(q_df,index,'bs.other_debt_1')+ad(q_df,index,'bs.other_debt_2')+(ad(q_df,index,'bs.total_debt') if ad(q_df,index,'bs.total_debt') &gt; (ad(q_df,index,'bs.current_debt')+ad(q_df,index,'bs.non_current_debt')) else (ad(q_df,index,'bs.current_debt')+ad(q_df,index,'bs.non_current_debt'))))/((ad(q_df,index,'bs.cp_debt')+ad(q_df,index,'bs.other_debt_1')+ad(q_df,index,'bs.other_debt_2')+(ad(q_df,index,'bs.total_debt') if ad(q_df,index,'bs.total_debt') &gt; (ad(q_df,index,'bs.current_debt')+ad(q_df,index,'bs.non_current_debt')) else (ad(q_df,index,'bs.current_debt')+ad(q_df,index,'bs.non_current_debt'))))+q_df.loc[index,'bs.total_shareholder_equity'])</t>
+  </si>
+  <si>
+    <t>(ad(q_df,index,'bs.cp_debt')+ad(q_df,index,'bs.other_debt_1')+ad(q_df,index,'bs.other_debt_2')+(ad(q_df,index,'bs.total_debt') if ad(q_df,index,'bs.total_debt') &gt; (ad(q_df,index,'bs.current_debt')+ad(q_df,index,'bs.non_current_debt')) else (ad(q_df,index,'bs.current_debt')+ad(q_df,index,'bs.non_current_debt'))))/q_df.loc[index,'bs.total_shareholder_equity']</t>
+  </si>
+  <si>
+    <t>((ad(q_df,index,'bs.cp_debt')+ad(q_df,index,'bs.other_debt_1')+ad(q_df,index,'bs.other_debt_2')+(ad(q_df,index,'bs.total_debt') if ad(q_df,index,'bs.total_debt') &gt; (ad(q_df,index,'bs.current_debt')+ad(q_df,index,'bs.non_current_debt')) else (ad(q_df,index,'bs.current_debt')+ad(q_df,index,'bs.non_current_debt'))))-(ad(q_df,index-1,'bs.cp_debt')+ad(q_df,index-1,'bs.other_debt_1')+ad(q_df,index-1,'bs.other_debt_2')+(ad(q_df,index-1,'bs.total_debt') if ad(q_df,index-1,'bs.total_debt') &gt; (ad(q_df,index-1,'bs.current_debt')+ad(q_df,index-1,'bs.non_current_debt')) else (ad(q_df,index-1,'bs.current_debt')+ad(q_df,index-1,'bs.non_current_debt')))))/(1 if (ad(q_df,index-1,'bs.cp_debt')+ad(q_df,index-1,'bs.other_debt_1')+ad(q_df,index-1,'bs.other_debt_2')+(ad(q_df,index-1,'bs.total_debt') if ad(q_df,index-1,'bs.total_debt') &gt; (ad(q_df,index-1,'bs.current_debt')+ad(q_df,index-1,'bs.non_current_debt')) else (ad(q_df,index-1,'bs.current_debt')+ad(q_df,index-1,'bs.non_current_debt'))))==0 else (ad(q_df,index-1,'bs.cp_debt')+ad(q_df,index-1,'bs.other_debt_1')+ad(q_df,index-1,'bs.other_debt_2')+(ad(q_df,index-1,'bs.total_debt') if ad(q_df,index-1,'bs.total_debt') &gt; (ad(q_df,index-1,'bs.current_debt')+ad(q_df,index-1,'bs.non_current_debt')) else (ad(q_df,index-1,'bs.current_debt')+ad(q_df,index-1,'bs.non_current_debt')))))</t>
+  </si>
+  <si>
+    <t>ConvertibleDebt</t>
+  </si>
+  <si>
+    <t>StockholdersEquityIncludingPortionAttributableToNoncontrollingInterest</t>
+  </si>
+  <si>
+    <t>DebtCurrent</t>
+  </si>
+  <si>
+    <t>ShortTermBorrowings</t>
+  </si>
+  <si>
+    <t>NetIncomeLossAvailableToCommonStockholdersBasic</t>
+  </si>
+  <si>
+    <t>CarryingValueOfCashAndCashEquivalents</t>
+  </si>
+  <si>
+    <t>is.common_net_income</t>
+  </si>
+  <si>
+    <t>CostsAndExpenses</t>
+  </si>
+  <si>
+    <t>InterestAndOtherFinancialCharges</t>
+  </si>
+  <si>
+    <t>InventoryNetOfAllowancesCustomerAdvancesAndProgressBillings</t>
+  </si>
+  <si>
+    <t>EnergyRelatedInventory</t>
+  </si>
+  <si>
+    <t>InventoryPartsAndComponentsNetOfReserves</t>
+  </si>
+  <si>
+    <t>bs.inventories_pc</t>
+  </si>
+  <si>
+    <t>365*(((ad(q_df,index,'bs.inventories')+ad(q_df,index,'bs.inventories_pc'))+(ad(q_df,index-1,'bs.inventories')+ad(q_df,index-1,'bs.inventories_pc')))/2)/q_df.loc[index,'is.cost_of_sales']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(365*(((ad(q_df,index,'bs.inventories')+ad(q_df,index,'bs.inventories_pc'))+(ad(q_df,index-1,'bs.inventories')+ad(q_df,index-1,'bs.inventories_pc')))/2)/q_df.loc[index,'is.cost_of_sales'])+(365*((q_df.loc[index,'bs.account_receivable']+q_df.loc[index-1,'bs.account_receivable'])/2)/q_df.loc[index,'is.net_revenue'])-365*((ad(q_df,index,'bs.accounts_payable')+ad(q_df,index-1,'bs.accounts_payable'))/2)/q_df.loc[index,'is.net_revenue']
 </t>
   </si>
   <si>
-    <t>q_df.loc[index,'is.net_revenue']/(((q_df.loc[index,'bs.total_current_assets']-q_df.loc[index,'bs.total_current_liabilities'])+(q_df.loc[index-1,'bs.total_current_assets']-q_df.loc[index-1,'bs.total_current_liabilities']))/2)</t>
-  </si>
-  <si>
-    <t>Revenue / Average Working Capital</t>
-  </si>
-  <si>
-    <t>q_df.loc[index,'is.net_revenue']/((q_df.loc[index,'bs.total_assets']+q_df.loc[index-1,'bs.total_assets'])/2)</t>
-  </si>
-  <si>
-    <t>Revenue / Average Total Asset</t>
-  </si>
-  <si>
-    <t>(cash+st_investment+AR)/Current_Liability</t>
-  </si>
-  <si>
-    <t>(cash+st_investment)/Current_Liability</t>
-  </si>
-  <si>
-    <t>Total_Debt/Total_Asset</t>
-  </si>
-  <si>
-    <t>Total_Debt/Total_Equity</t>
-  </si>
-  <si>
-    <t>Total_Debt/(Total_Debt+Total_Equity)</t>
-  </si>
-  <si>
-    <t>Avg_Total_Asset/Avg_Total_Equity</t>
-  </si>
-  <si>
-    <t>Interest_exp/Op_income</t>
-  </si>
-  <si>
-    <t>Op_income/interest_exp</t>
-  </si>
-  <si>
-    <t>Gross_profit/Rev</t>
-  </si>
-  <si>
-    <t>Op_income/Rev</t>
-  </si>
-  <si>
-    <t>(Op_income+Depreciation+Amortization)/Rev</t>
-  </si>
-  <si>
-    <t>Net_Income/Rev</t>
-  </si>
-  <si>
-    <t>Net_income/Avg_Total_Equity</t>
-  </si>
-  <si>
-    <t>Net_Income/Avg_Total_Asset</t>
-  </si>
-  <si>
-    <t>SG&amp;A/Gross_Profit</t>
-  </si>
-  <si>
-    <t>R&amp;D/Gross_Profit</t>
-  </si>
-  <si>
-    <t>Depreciation/Gross_Profit</t>
-  </si>
-  <si>
-    <t>(Debt1-Debt0)/Debt0</t>
-  </si>
-  <si>
-    <t>(Cash1-Cash0)/Cash0</t>
-  </si>
-  <si>
-    <t>(Num_shares1-Num_shares0)/Num_shares0</t>
-  </si>
-  <si>
-    <t>(Inventory1-Inventory0)/Inventory0</t>
-  </si>
-  <si>
-    <t>(PP&amp;E1-PP&amp;E0)/PP&amp;E0</t>
-  </si>
-  <si>
-    <t>(Goodwill1-Goodwill0)/Goodwill0</t>
-  </si>
-  <si>
-    <t>(Asset1-Asset0)/Asset0</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.total_assets']+q_df.loc[index-1,'bs.total_assets'])/(q_df.loc[index,'bs.total_shareholder_equity']+q_df.loc[index-1,'bs.total_shareholder_equity'])</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])/q_df.loc[index,'is.net_revenue']</t>
-  </si>
-  <si>
-    <t>q_df.loc[index,'is.operating_income']/q_df.loc[index,'is.net_revenue']</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'is.operating_income']+q_df.loc[index,'cfs.depreciation_n_amortization'])/q_df.loc[index,'is.net_revenue']</t>
-  </si>
-  <si>
-    <t>q_df.loc[index,'is.net_income']/q_df.loc[index,'is.net_revenue']</t>
-  </si>
-  <si>
-    <t>q_df.loc[index,'is.net_income']/((q_df.loc[index,'bs.total_assets']+q_df.loc[index-1,'bs.total_assets'])/2)</t>
-  </si>
-  <si>
-    <t>q_df.loc[index,'is.net_income']/((q_df.loc[index,'bs.total_shareholder_equity']+q_df.loc[index-1,'bs.total_shareholder_equity'])/2)</t>
-  </si>
-  <si>
-    <t>q_df.loc[index,'is.sg_and_a']/(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])</t>
-  </si>
-  <si>
-    <t>q_df.loc[index,'is.r_and_d']/(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])</t>
-  </si>
-  <si>
-    <t>q_df.loc[index,'cfs.depreciation_n_amortization']/(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.cash_n_equivalent']-q_df.loc[index-1,'bs.cash_n_equivalent'])/q_df.loc[index-1,'bs.cash_n_equivalent']</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.inventories']-q_df.loc[index-1,'bs.inventories'])/q_df.loc[index-1,'bs.inventories']</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.pp_and_e']-q_df.loc[index-1,'bs.pp_and_e'])/q_df.loc[index-1,'bs.pp_and_e']</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.goodwill']-q_df.loc[index-1,'bs.goodwill'])/q_df.loc[index-1,'bs.goodwill']</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.total_assets']-q_df.loc[index-1,'bs.total_assets'])/q_df.loc[index-1,'bs.total_assets']</t>
-  </si>
-  <si>
-    <t>Unfavorable_Growth_Item</t>
-  </si>
-  <si>
-    <t>Convertible long-term debt</t>
-  </si>
-  <si>
-    <t>Net cash provided by operating activities, net of effect of acquisition</t>
-  </si>
-  <si>
-    <t>Shares used in diluted per share computation</t>
-  </si>
-  <si>
-    <t>$ in Millions</t>
-  </si>
-  <si>
-    <t>In Millions</t>
-  </si>
-  <si>
-    <t>In Thousands</t>
-  </si>
-  <si>
-    <t>shares in Millions</t>
-  </si>
-  <si>
-    <t>In Millions, except Per Share</t>
-  </si>
-  <si>
-    <t>shares in Thousands</t>
-  </si>
-  <si>
-    <t>In Thousands, except Per Share data</t>
-  </si>
-  <si>
-    <t>In Thousands, except Share data</t>
-  </si>
-  <si>
-    <t>Share data in Thousands, except Per Share data, unless otherwise specified</t>
-  </si>
-  <si>
-    <t>Marketing, general, and administrative</t>
-  </si>
-  <si>
-    <t>Property, plant and equipment at cost</t>
-  </si>
-  <si>
-    <t>Cash flows from operating activities</t>
-  </si>
-  <si>
-    <t>Operating profit</t>
-  </si>
-  <si>
-    <t>Net cash provided by operations</t>
-  </si>
-  <si>
-    <t>Interest and other expense</t>
-  </si>
-  <si>
-    <t>Total shareholders’ equity</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'is.num_shares_diluted']-q_df.loc[index-1,'is.num_shares_diluted'])/q_df.loc[index-1,'is.num_shares_diluted']</t>
-  </si>
-  <si>
-    <t>Capital expenditures and intangible assets</t>
-  </si>
-  <si>
-    <t>Number of shares used in per share calculations</t>
-  </si>
-  <si>
-    <t>Net (loss) income</t>
-  </si>
-  <si>
-    <t>$ in Thousands</t>
-  </si>
-  <si>
-    <t>Investments</t>
-  </si>
-  <si>
-    <t>Basic earnings per share of common stock</t>
-  </si>
-  <si>
-    <t>Diluted earnings per share of common stock</t>
-  </si>
-  <si>
-    <t>Earnings per share—Basic</t>
-  </si>
-  <si>
-    <t>Earnings per share—Diluted</t>
-  </si>
-  <si>
-    <t>Earnings per share attributable to Intel—basic</t>
-  </si>
-  <si>
-    <t>Earnings per share attributable to Intel—diluted</t>
-  </si>
-  <si>
-    <t>Weighted-average shares</t>
-  </si>
-  <si>
-    <t>Weighted-average shares used in per share calculations</t>
-  </si>
-  <si>
-    <t>Expenditures for property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Earnings per share</t>
-  </si>
-  <si>
-    <t>Weighted average number of shares</t>
-  </si>
-  <si>
-    <t>Capital expenditures, net</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Interest and other expenses</t>
-  </si>
-  <si>
-    <t>Less: short-term debt</t>
-  </si>
-  <si>
-    <t>Short-term and current portion of long-term debt</t>
-  </si>
-  <si>
-    <t>Available-for-sale Securities</t>
-  </si>
-  <si>
-    <t>Weighted average shares outstanding</t>
-  </si>
-  <si>
-    <t>Current portion of long-term debt, convertible notes, and capital leases</t>
-  </si>
-  <si>
-    <t>Long-term debt, convertible notes, and capital leases</t>
-  </si>
-  <si>
-    <t>Current portion of convertible notes and capital leases</t>
-  </si>
-  <si>
-    <t>Senior notes, convertible notes, and capital leases, less current portion</t>
-  </si>
-  <si>
-    <t>Current portion of convertible notes, capital leases, and commercial paper</t>
-  </si>
-  <si>
-    <t>Long-term debt and capital leases, less current portion</t>
-  </si>
-  <si>
-    <t>Commercial paper and current portion of convertible notes and capital leases</t>
-  </si>
-  <si>
-    <t>Current portion of convertible notes and finance leases</t>
-  </si>
-  <si>
-    <t>Senior notes, convertible notes, and finance leases, less current portion</t>
-  </si>
-  <si>
-    <t>Current portion of convertible notes, and capital leases; and commercial paper</t>
-  </si>
-  <si>
-    <t>Current portion of long-term debt and finance lease obligations</t>
-  </si>
-  <si>
-    <t>Long-term debt and finance lease obligations, less current portion</t>
-  </si>
-  <si>
-    <t>Net property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Debt, Current</t>
-  </si>
-  <si>
-    <t>Selling, marketing, general and administrative</t>
-  </si>
-  <si>
-    <t>Shares used to compute earnings per share – diluted</t>
-  </si>
-  <si>
-    <t>Basic earnings per share</t>
-  </si>
-  <si>
-    <t>Diluted earnings per share</t>
-  </si>
-  <si>
-    <t>Operating income from continuing operations</t>
-  </si>
-  <si>
-    <t>Accounts payable and accrued expenses</t>
-  </si>
-  <si>
-    <t>Income tax benefit</t>
-  </si>
-  <si>
-    <t>Inventory, Net</t>
-  </si>
-  <si>
-    <t>Basic earnings per common share</t>
-  </si>
-  <si>
-    <t>Diluted earnings per common share</t>
-  </si>
-  <si>
-    <t>Basic and diluted earnings per share</t>
-  </si>
-  <si>
-    <t>Loss per common share, basic and diluted</t>
-  </si>
-  <si>
-    <t>Denominator for diluted earnings per share</t>
-  </si>
-  <si>
-    <t>Average shares outstanding</t>
-  </si>
-  <si>
-    <t>Earnings per common share diluted</t>
-  </si>
-  <si>
-    <t>Shares used to compute earnings per share - Diluted</t>
-  </si>
-  <si>
-    <t>Shares used to compute earnings per common share – diluted</t>
-  </si>
-  <si>
-    <t>Revenues</t>
-  </si>
-  <si>
-    <t>Costs of revenues</t>
-  </si>
-  <si>
-    <t>Weighted-average number of shares</t>
-  </si>
-  <si>
-    <t>Purchase of property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Cost of product revenues</t>
-  </si>
-  <si>
-    <t>Weighted average common shares outstanding</t>
-  </si>
-  <si>
-    <t>Cost of revenues</t>
-  </si>
-  <si>
-    <t>Weighted-average common shares outstanding</t>
-  </si>
-  <si>
-    <t>Weighted-average shares of common stock outstanding</t>
-  </si>
-  <si>
-    <t>Short-term borrowings and current portion of long-term debt</t>
-  </si>
-  <si>
-    <t>Payments for property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Net income attributable to Amkor per common share</t>
-  </si>
-  <si>
-    <t>Shares used in computing per common share amounts</t>
-  </si>
-  <si>
-    <t>Weighted Average Number of Shares Outstanding, Diluted</t>
-  </si>
-  <si>
-    <t>Junior convertible debentures</t>
-  </si>
-  <si>
-    <t>Share data in Thousands, except Per Share data</t>
-  </si>
-  <si>
-    <t>Net income from continuing operations</t>
-  </si>
-  <si>
-    <t>Basic net income per common share attributable to Microchip Technology stockholders</t>
-  </si>
-  <si>
-    <t>Diluted common shares outstanding</t>
-  </si>
-  <si>
-    <t>Basic net income per common share - continuing operations</t>
-  </si>
-  <si>
-    <t>Basic net income from continuing operations, per common share</t>
-  </si>
-  <si>
-    <t>Diluted net income from continuing operations, per common share</t>
-  </si>
-  <si>
-    <t>Basic net income per common share</t>
-  </si>
-  <si>
-    <t>Diluted net income per common share</t>
-  </si>
-  <si>
-    <t>Basic net income per common share from continuing operations</t>
-  </si>
-  <si>
-    <t>Diluted net income per common share from continuing operations</t>
-  </si>
-  <si>
-    <t>Long-term debt, less current maturities</t>
-  </si>
-  <si>
-    <t>Cost of Goods and Services Sold</t>
-  </si>
-  <si>
-    <t>Revenue from Contract with Customer, Excluding Assessed Tax</t>
-  </si>
-  <si>
-    <t>Weighted average shares</t>
-  </si>
-  <si>
-    <t>Net Cash Provided by Operating Activities, Continuing Operations</t>
-  </si>
-  <si>
-    <t>Current portion of long-term debt, net of unamortized discount</t>
-  </si>
-  <si>
-    <t>Long-term debt, net of unamortized issuance costs</t>
-  </si>
-  <si>
-    <t>Purchase of property and equipment</t>
-  </si>
-  <si>
-    <t>Weighted average shares of common stock outstanding</t>
-  </si>
-  <si>
-    <t>Loss from operations</t>
-  </si>
-  <si>
-    <t>Selling, General and Administrative Expense</t>
-  </si>
-  <si>
-    <t>Research and Development Expense</t>
-  </si>
-  <si>
-    <t>Long-Term Debt, Excluding Current Maturities</t>
-  </si>
-  <si>
-    <t>Goodwill and acquired intangible assets, net</t>
-  </si>
-  <si>
-    <t>Net income per share - Basic</t>
-  </si>
-  <si>
-    <t>Net income per share - Diluted</t>
-  </si>
-  <si>
-    <t>Net loss per share - Basic</t>
-  </si>
-  <si>
-    <t>Net loss per share - Diluted</t>
-  </si>
-  <si>
-    <t>Benefit for income taxes</t>
-  </si>
-  <si>
-    <t>Goodwill and other intangible assets, net</t>
-  </si>
-  <si>
-    <t>Depreciation, amortization and other impairment charges</t>
-  </si>
-  <si>
-    <t>Earnings per share attributable to the shareholders of Flex Ltd.</t>
-  </si>
-  <si>
-    <t>Selling, general and administrative expenses</t>
-  </si>
-  <si>
-    <t>Weighted-average shares used in computing per share amounts</t>
-  </si>
-  <si>
-    <t>Consolidated Statements of Earnings</t>
-  </si>
-  <si>
-    <t>RENEWABLE_ENERGY</t>
-  </si>
-  <si>
-    <t>FIRST SOLAR, INC.</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Accumulated earnings</t>
-  </si>
-  <si>
-    <t>Weighted-average number of shares used in per share calculations</t>
-  </si>
-  <si>
-    <t>Total income tax expense</t>
-  </si>
-  <si>
-    <t>Interest expense, net</t>
-  </si>
-  <si>
-    <t>Statement of Cash Flows (Details)</t>
-  </si>
-  <si>
-    <t>Depreciation, amortization, and accretion</t>
-  </si>
-  <si>
-    <t>Depreciation, amortization and accretion</t>
-  </si>
-  <si>
-    <t>Total stockholders equity</t>
-  </si>
-  <si>
-    <t>(curr_eps-prev_eps)/abs(prev_eps)</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'is.eps_basic']-q_df.loc[index-1,'is.eps_basic'])/abs(q_df.loc[index-1,'is.eps_basic'])</t>
-  </si>
-  <si>
-    <t>days_inventory_on_hand</t>
-  </si>
-  <si>
-    <t>days_sales_outstanding</t>
-  </si>
-  <si>
-    <t>days_payable</t>
-  </si>
-  <si>
-    <t>cash_conversion_cycle</t>
-  </si>
-  <si>
-    <t>working_capital_turnover</t>
-  </si>
-  <si>
-    <t>total_asset_turnover</t>
-  </si>
-  <si>
-    <t>quick_ratio</t>
-  </si>
-  <si>
-    <t>cash_ratio</t>
-  </si>
-  <si>
-    <t>debt_to_asset</t>
-  </si>
-  <si>
-    <t>debt_to_capital</t>
-  </si>
-  <si>
-    <t>debt_to_equity</t>
-  </si>
-  <si>
-    <t>financial_leverage</t>
-  </si>
-  <si>
-    <t>interest_coverage</t>
-  </si>
-  <si>
-    <t>interest_ratio</t>
-  </si>
-  <si>
-    <t>gross_profit_margin</t>
-  </si>
-  <si>
-    <t>operating_profit_margin</t>
-  </si>
-  <si>
-    <t>ebitda_margin</t>
-  </si>
-  <si>
-    <t>net_profit_margin</t>
-  </si>
-  <si>
-    <t>return_on_asset</t>
-  </si>
-  <si>
-    <t>return_on_equity</t>
-  </si>
-  <si>
-    <t>depreciation_ratio</t>
-  </si>
-  <si>
-    <t>cash_growth_rate</t>
-  </si>
-  <si>
-    <t>debt_growth_rate</t>
-  </si>
-  <si>
-    <t>outstanding_shares_growth_rate</t>
-  </si>
-  <si>
-    <t>inventory_growth_rate</t>
-  </si>
-  <si>
-    <t>goodwill_growth_rate</t>
-  </si>
-  <si>
-    <t>total_asset_growth_rate</t>
-  </si>
-  <si>
-    <t>sg_a_ratio</t>
-  </si>
-  <si>
-    <t>r_d_ratio</t>
-  </si>
-  <si>
-    <t>revenue_growth_rate</t>
-  </si>
-  <si>
-    <t>return_on_invested_capital_rate</t>
-  </si>
-  <si>
-    <t>eps_growth_rate</t>
-  </si>
-  <si>
-    <t>adj_equity_growth_rate</t>
-  </si>
-  <si>
-    <t>free_cashflow_growth_rate</t>
-  </si>
-  <si>
-    <t>Formula_Shortname</t>
-  </si>
-  <si>
-    <t>Formula_Category</t>
-  </si>
-  <si>
-    <t>Efficiency Ratio</t>
-  </si>
-  <si>
-    <t>Liquidity Ratio</t>
-  </si>
-  <si>
-    <t>Solvency Ratio</t>
-  </si>
-  <si>
-    <t>Profitability Ratio</t>
-  </si>
-  <si>
-    <t>Miscellaneous Ratio</t>
-  </si>
-  <si>
-    <t>Key Ratio</t>
-  </si>
-  <si>
-    <t>Days of Inventory on Hand</t>
-  </si>
-  <si>
-    <t>Days of Sales Outstanding</t>
-  </si>
-  <si>
-    <t>Days of Payable</t>
-  </si>
-  <si>
-    <t>Cash conversion cycle</t>
-  </si>
-  <si>
-    <t>Working Capital Turnover</t>
-  </si>
-  <si>
-    <t>Total Asset Turnover</t>
-  </si>
-  <si>
-    <t>Quick Ratio</t>
-  </si>
-  <si>
-    <t>Cash Ratio</t>
-  </si>
-  <si>
-    <t>Debt to Asset</t>
-  </si>
-  <si>
-    <t>Debt to Capital</t>
-  </si>
-  <si>
-    <t>Debt to Equity</t>
-  </si>
-  <si>
-    <t>pp_e_growth_rate</t>
-  </si>
-  <si>
-    <t>Financial Leverage</t>
-  </si>
-  <si>
-    <t>Interest Coverage</t>
-  </si>
-  <si>
-    <t>Interest Ratio</t>
-  </si>
-  <si>
-    <t>Gross Profit Margin</t>
-  </si>
-  <si>
-    <t>Operating Profit Margin</t>
-  </si>
-  <si>
-    <t>EBITDA Margin</t>
-  </si>
-  <si>
-    <t>Net Profit Margin</t>
-  </si>
-  <si>
-    <t>Return on Asset</t>
-  </si>
-  <si>
-    <t>Return on Equity</t>
-  </si>
-  <si>
-    <t>SG&amp;A Ratio</t>
-  </si>
-  <si>
-    <t>R&amp;D Ratio</t>
-  </si>
-  <si>
-    <t>Depreciation Ratio</t>
-  </si>
-  <si>
-    <t>Cash Growth Rate</t>
-  </si>
-  <si>
-    <t>Debt Growth Rate</t>
-  </si>
-  <si>
-    <t>Outstanding Shares Growth Rate</t>
-  </si>
-  <si>
-    <t>Inventory Growth Rate</t>
-  </si>
-  <si>
-    <t>PP&amp;E Growth Rate</t>
-  </si>
-  <si>
-    <t>Goodwill Growth Rate</t>
-  </si>
-  <si>
-    <t>Total Asset Growth Rate</t>
-  </si>
-  <si>
-    <t>formula_type</t>
-  </si>
-  <si>
-    <t>formula_direction</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>q_df.loc[index,'is.operating_income']/abs(q_df.loc[index,'is.interest_expense'])</t>
-  </si>
-  <si>
-    <t>abs(q_df.loc[index,'is.interest_expense'])/q_df.loc[index,'is.operating_income']</t>
-  </si>
-  <si>
-    <t>multiple</t>
-  </si>
-  <si>
-    <t>AccountsReceivableNetCurrent</t>
-  </si>
-  <si>
-    <t>InventoryNet</t>
-  </si>
-  <si>
-    <t>AssetsCurrent</t>
-  </si>
-  <si>
-    <t>CashAndCashEquivalentsAtCarryingValue</t>
-  </si>
-  <si>
-    <t>ShortTermInvestments</t>
-  </si>
-  <si>
-    <t>PropertyPlantAndEquipmentNet</t>
-  </si>
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>StockholdersEquity</t>
-  </si>
-  <si>
-    <t>LongTermDebtNoncurrent</t>
-  </si>
-  <si>
-    <t>AccountsPayableCurrent</t>
-  </si>
-  <si>
-    <t>LiabilitiesCurrent</t>
-  </si>
-  <si>
-    <t>TreasuryStockValue</t>
-  </si>
-  <si>
-    <t>RetainedEarningsAccumulatedDeficit</t>
-  </si>
-  <si>
-    <t>bs.total_liabilities_and_equity</t>
-  </si>
-  <si>
-    <t>LiabilitiesAndStockholdersEquity</t>
-  </si>
-  <si>
-    <t>OtherDepreciationAndAmortization</t>
-  </si>
-  <si>
-    <t>NetCashProvidedByUsedInOperatingActivities</t>
-  </si>
-  <si>
-    <t>CapitalExpendituresIncurredButNotYetPaid</t>
-  </si>
-  <si>
-    <t>RevenueFromContractWithCustomerExcludingAssessedTax</t>
-  </si>
-  <si>
-    <t>CostOfGoodsAndServiceExcludingDepreciationDepletionAndAmortization</t>
-  </si>
-  <si>
-    <t>ResearchAndDevelopmentExpense</t>
-  </si>
-  <si>
-    <t>SellingGeneralAndAdministrativeExpense</t>
-  </si>
-  <si>
-    <t>OperatingIncomeLoss</t>
-  </si>
-  <si>
-    <t>InterestExpense</t>
-  </si>
-  <si>
-    <t>IncomeTaxExpenseBenefit</t>
-  </si>
-  <si>
-    <t>NetIncomeLoss</t>
-  </si>
-  <si>
-    <t>EarningsPerShareBasic</t>
-  </si>
-  <si>
-    <t>EarningsPerShareDiluted</t>
-  </si>
-  <si>
-    <t>WeightedAverageNumberOfDilutedSharesOutstanding</t>
-  </si>
-  <si>
-    <t>DebtInstrumentCarryingAmount</t>
-  </si>
-  <si>
-    <t>SalesRevenueNet</t>
-  </si>
-  <si>
-    <t>CostOfGoodsSold</t>
-  </si>
-  <si>
-    <t>DepreciationDepletionAndAmortization</t>
-  </si>
-  <si>
-    <t>CostOfGoodsAndServicesSold</t>
-  </si>
-  <si>
-    <t>AvailableForSaleSecuritiesCurrent</t>
-  </si>
-  <si>
-    <t>AvailableForSaleSecuritiesDebtSecuritiesCurrent</t>
-  </si>
-  <si>
-    <t>RestrictedCashAndCashEquivalents</t>
-  </si>
-  <si>
-    <t>RestrictedCashAndCashEquivalentsAtCarryingValue</t>
-  </si>
-  <si>
-    <t>RestrictedCashAndInvestmentsNoncurrent</t>
-  </si>
-  <si>
-    <t>MarketableSecurities</t>
-  </si>
-  <si>
-    <t>MarketableSecuritiesCurrent</t>
-  </si>
-  <si>
-    <t>AccountsAndNotesReceivableNet</t>
-  </si>
-  <si>
-    <t>AccountsNotesAndLoansReceivableNetCurrent</t>
-  </si>
-  <si>
-    <t>AccountsReceivableNet</t>
-  </si>
-  <si>
-    <t>AccountsReceivableGrossCurrent</t>
-  </si>
-  <si>
-    <t>bs.total_debt</t>
-  </si>
-  <si>
-    <t>DepreciationAmortizationAndAccretionNet</t>
-  </si>
-  <si>
-    <t>DepreciationAndAmortization</t>
-  </si>
-  <si>
-    <t>LongTermDebt</t>
-  </si>
-  <si>
-    <t>LongTermDebtCurrent</t>
-  </si>
-  <si>
-    <t>LongTermDebtAndCapitalLeaseObligations</t>
-  </si>
-  <si>
-    <t>DebtAndCapitalLeaseObligations</t>
-  </si>
-  <si>
-    <t>LongTermDebtAndCapitalLeaseObligationsCurrent</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.total_debt'])/q_df.loc[index,'bs.total_assets']</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.total_debt'])/(q_df.loc[index,'bs.total_debt']+q_df.loc[index,'bs.total_shareholder_equity'])</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.total_debt'])/q_df.loc[index,'bs.total_shareholder_equity']</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.total_debt']-q_df.loc[index-1,'bs.total_debt'])/(q_df.loc[index-1,'bs.total_debt'])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(q_df.loc[index,'is.operating_income']*(1-q_df.loc[index,'is.income_tax_provision']/(q_df.loc[index,'is.income_tax_provision']+q_df.loc[index,'is.net_income'])))/(q_df.loc[index,'bs.total_debt']-q_df.loc[index,'bs.cash_n_equivalent']+q_df.loc[index,'bs.total_shareholder_equity'])
-</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index, 'bs.cash_n_equivalent'] + (0 if pd.isna(q_df.loc[index, 'bs.st_investment']) else q_df.loc[index, 'bs.st_investment'])) / q_df.loc[index, 'bs.total_current_liabilities']</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.cash_n_equivalent']+ (0 if pd.isna(q_df.loc[index, 'bs.st_investment']) else q_df.loc[index, 'bs.st_investment'])+q_df.loc[index,'bs.account_receivable'])/q_df.loc[index,'bs.total_current_liabilities']</t>
-  </si>
-  <si>
-    <t>((q_df.loc[index,'cfs.cfo']+(q_df.loc[index,'is.interest_expense']*(1-q_df.loc[index,'is.income_tax_provision']/(q_df.loc[index,'is.income_tax_provision']+q_df.loc[index,'is.net_income'])))-(0 if pd.isna(q_df.loc[index,'cfs.capital_expenditure']) else abs(q_df.loc[index,'cfs.capital_expenditure'])))-(q_df.loc[index-1,'cfs.cfo']+(q_df.loc[index-1,'is.interest_expense']*(1-q_df.loc[index-1,'is.income_tax_provision']/(q_df.loc[index-1,'is.income_tax_provision']+q_df.loc[index-1,'is.net_income'])))-(0 if pd.isna(q_df.loc[index-1,'cfs.capital_expenditure']) else abs(q_df.loc[index-1,'cfs.capital_expenditure']))))/abs((q_df.loc[index-1,'cfs.cfo']+(q_df.loc[index-1,'is.interest_expense']*(1-q_df.loc[index-1,'is.income_tax_provision']/(q_df.loc[index-1,'is.income_tax_provision']+q_df.loc[index-1,'is.net_income'])))-(0 if pd.isna(q_df.loc[index-1,'cfs.capital_expenditure']) else abs(q_df.loc[index-1,'cfs.capital_expenditure']))))</t>
-  </si>
-  <si>
-    <t>CommercialPaper</t>
+    <t>((ad(q_df,index,'bs.inventories')+ad(q_df,index,'bs.inventories_pc'))-(ad(q_df,index-1,'bs.inventories')+ad(q_df,index-1,'bs.inventories_pc')))/(ad(q_df,index-1,'bs.inventories')+ad(q_df,index-1,'bs.inventories_pc'))</t>
+  </si>
+  <si>
+    <t>CommonStockSharesOutstanding</t>
+  </si>
+  <si>
+    <t>InterestExpenseDebt</t>
+  </si>
+  <si>
+    <t>EarningsPerShareBasicAndDiluted</t>
+  </si>
+  <si>
+    <t>OtherSellingGeneralAndAdministrativeExpense</t>
+  </si>
+  <si>
+    <t>AccountsPayableCurrentAndNoncurrent</t>
+  </si>
+  <si>
+    <t>CashCashEquivalentsRestrictedCashAndRestrictedCashEquivalentsIncludingDisposalGroupAndDiscontinuedOperations</t>
+  </si>
+  <si>
+    <t>AccountsPayableAndOtherAccruedLiabilitiesCurrent</t>
+  </si>
+  <si>
+    <t>CostOfServices</t>
+  </si>
+  <si>
+    <t>ResearchAndDevelopmentExpenseSoftwareExcludingAcquiredInProcessCost</t>
+  </si>
+  <si>
+    <t>IncomeLossFromContinuingOperationsPerBasicAndDilutedShare</t>
+  </si>
+  <si>
+    <t>(((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])*(1-ad(q_df,index,'is.income_tax_provision')/(ad(q_df,index,'is.income_tax_provision')+q_df.loc[index,'is.net_income'])))/((ad(q_df,index,'bs.cp_debt')+ad(q_df,index,'bs.other_debt_1')+ad(q_df,index,'bs.other_debt_2')+(ad(q_df,index,'bs.total_debt') if ad(q_df,index,'bs.total_debt') &gt; (ad(q_df,index,'bs.current_debt')+ad(q_df,index,'bs.non_current_debt')) else (ad(q_df,index,'bs.current_debt')+ad(q_df,index,'bs.non_current_debt'))))-q_df.loc[index,'bs.cash_n_equivalent']+q_df.loc[index,'bs.total_shareholder_equity'])</t>
+  </si>
+  <si>
+    <t>((q_df.loc[index,'cfs.cfo']+(ad(q_df,index,'is.interest_expense')*(1-ad(q_df,index,'is.income_tax_provision')/(ad(q_df,index,'is.income_tax_provision')+q_df.loc[index,'is.net_income'])))-ad(q_df,index,'cfs.capital_expenditure'))-(q_df.loc[index-1,'cfs.cfo']+(ad(q_df,index-1,'is.interest_expense')*(1-ad(q_df,index-1,'is.income_tax_provision')/(ad(q_df,index-1,'is.income_tax_provision')+q_df.loc[index-1,'is.net_income'])))-ad(q_df,index-1,'cfs.capital_expenditure')))/abs((q_df.loc[index-1,'cfs.cfo']+(ad(q_df,index-1,'is.interest_expense')*(1-ad(q_df,index-1,'is.income_tax_provision')/(ad(q_df,index-1,'is.income_tax_provision')+q_df.loc[index-1,'is.net_income'])))-ad(q_df,index-1,'cfs.capital_expenditure')))</t>
+  </si>
+  <si>
+    <t>PropertyPlantAndEquipmentNetExcludingCapitalLeasedAssets</t>
+  </si>
+  <si>
+    <t>CommonStockSharesIssued</t>
+  </si>
+  <si>
+    <t>CashCashEquivalentsAndShortTermInvestments</t>
+  </si>
+  <si>
+    <t>InterestIncomeExpenseNet</t>
+  </si>
+  <si>
+    <t>RevenuesAndOtherIncome</t>
+  </si>
+  <si>
+    <t>InventoryRealEstate</t>
+  </si>
+  <si>
+    <t>NotesPayable</t>
+  </si>
+  <si>
+    <t>PartnersCapital</t>
+  </si>
+  <si>
+    <t>NetIncomeLossPerOutstandingLimitedPartnershipAndGeneralPartnershipUnitBasicAndDiluted</t>
+  </si>
+  <si>
+    <t>WeightedAverageNumberOfLimitedPartnershipAndGeneralPartnershipUnitOutstandingBasicAndDiluted</t>
+  </si>
+  <si>
+    <t>InterestAndDividendIncomeOperating</t>
+  </si>
+  <si>
+    <t>InterestIncomeExpenseAfterProvisionForLoanLoss</t>
+  </si>
+  <si>
+    <t>WeightedAverageNumberOfSharesOutstandingBasic</t>
+  </si>
+  <si>
+    <t>InterestIncomeExpenseNonoperatingNet</t>
+  </si>
+  <si>
+    <t>AccountsPayableTradeCurrent</t>
+  </si>
+  <si>
+    <t>FinanceLeaseLiabilityNoncurrent</t>
+  </si>
+  <si>
+    <t>FinanceLeaseLiabilityCurrent</t>
+  </si>
+  <si>
+    <t>IncomeLossFromContinuingOperationsBeforeIncomeTaxesDomestic</t>
+  </si>
+  <si>
+    <t>ResultsOfOperationsGeneralAndAdministrativeRelatedToOilAndGasProducingActivities</t>
+  </si>
+  <si>
+    <t>AccountsPayableAndOtherAccruedLiabilities</t>
+  </si>
+  <si>
+    <t>MarketingAndAdvertisingExpense</t>
+  </si>
+  <si>
+    <t>OtherGeneralAndAdministrativeExpense</t>
+  </si>
+  <si>
+    <t>ReceivablesFromTradeBrokersDealersAndClearingOrganizations</t>
+  </si>
+  <si>
+    <t>PayablesToTradeBrokersDealersAndClearingOrganizations</t>
   </si>
 </sst>
 </file>
@@ -1779,9 +1980,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1831,13 +2032,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1868,32 +2062,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2346,7 +2538,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
         <v>99</v>
@@ -2390,7 +2582,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
@@ -2419,7 +2611,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2498,7 +2690,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B1">
         <v>1000000</v>
@@ -2506,7 +2698,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2514,7 +2706,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B3">
         <v>1000000</v>
@@ -2522,7 +2714,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B4">
         <v>1000</v>
@@ -2530,7 +2722,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2538,7 +2730,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2546,7 +2738,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2554,7 +2746,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B8">
         <v>1000</v>
@@ -2581,7 +2773,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B1">
         <v>1000000</v>
@@ -2589,7 +2781,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B2">
         <v>1000000</v>
@@ -2597,7 +2789,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -2605,7 +2797,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B4">
         <v>1000</v>
@@ -2613,7 +2805,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -2621,7 +2813,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B6">
         <v>1000</v>
@@ -2629,7 +2821,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -3046,10 +3238,10 @@
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G2" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
@@ -3058,19 +3250,19 @@
         <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="M2" t="s">
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="O2" t="s">
         <v>51</v>
@@ -3079,7 +3271,7 @@
         <v>110</v>
       </c>
       <c r="Q2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3087,31 +3279,31 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="I3" t="s">
         <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="L3" t="s">
         <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="P3" t="s">
         <v>114</v>
@@ -3134,7 +3326,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="G4" t="s">
         <v>189</v>
@@ -3143,10 +3335,10 @@
         <v>153</v>
       </c>
       <c r="J4" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="N4" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="Q4" t="s">
         <v>52</v>
@@ -3154,7 +3346,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
         <v>120</v>
@@ -3172,10 +3364,10 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="J5" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="N5" t="s">
         <v>191</v>
@@ -3183,19 +3375,19 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="J6" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="N6" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3203,10 +3395,10 @@
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="N7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3214,28 +3406,28 @@
         <v>190</v>
       </c>
       <c r="N8" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="N9" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="N10" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="N11" t="s">
         <v>109</v>
@@ -3243,10 +3435,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="N12" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3254,7 +3446,7 @@
         <v>131</v>
       </c>
       <c r="N13" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3293,7 +3485,7 @@
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.25">
@@ -3308,7 +3500,7 @@
     </row>
     <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="10:10" x14ac:dyDescent="0.25">
@@ -3326,32 +3518,33 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46" style="11" customWidth="1"/>
-    <col min="11" max="11" width="45.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="109.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="46" style="9" customWidth="1"/>
+    <col min="17" max="17" width="45.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -3365,155 +3558,290 @@
         <v>17</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>544</v>
-      </c>
       <c r="K1" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="S1" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="K2" t="s">
+        <v>529</v>
+      </c>
+      <c r="L2" t="s">
+        <v>527</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="O2" t="s">
+        <v>571</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" t="s">
         <v>512</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="C3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="K3" t="s">
+        <v>526</v>
+      </c>
+      <c r="L3" t="s">
+        <v>530</v>
+      </c>
+      <c r="M3" t="s">
+        <v>570</v>
+      </c>
+      <c r="N3" t="s">
+        <v>582</v>
+      </c>
+      <c r="O3" t="s">
+        <v>579</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="M4" t="s">
         <v>528</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="N4" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5" s="9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6" s="9" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J7" s="9" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J8" s="9" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J9" t="s">
-        <v>560</v>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="9" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -3565,7 +3893,7 @@
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
         <v>145</v>
@@ -3573,13 +3901,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
         <v>139</v>
@@ -3587,7 +3915,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -3596,18 +3924,18 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D5" t="s">
         <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3615,7 +3943,7 @@
         <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -3631,15 +3959,15 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3649,12 +3977,12 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3672,54 +4000,75 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+      <c r="D2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="C3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -3795,10 +4144,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C2" t="s">
         <v>158</v>
@@ -3807,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="G2" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="H2" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="I2" t="s">
         <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="K2" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="L2" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="M2" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3842,31 +4191,31 @@
         <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="E3" t="s">
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="G3" t="s">
         <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="I3" t="s">
         <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="K3" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="L3" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="M3" t="s">
         <v>150</v>
@@ -3877,7 +4226,7 @@
         <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -3886,28 +4235,28 @@
         <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G4" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="H4" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="I4" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="J4" t="s">
         <v>128</v>
       </c>
       <c r="K4" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="L4" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="M4" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3927,24 +4276,24 @@
         <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="J5" t="s">
         <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="L5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="M5" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -3953,7 +4302,7 @@
         <v>142</v>
       </c>
       <c r="G6" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="I6" t="s">
         <v>127</v>
@@ -3962,13 +4311,13 @@
         <v>195</v>
       </c>
       <c r="K6" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="L6" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="M6" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3988,10 +4337,10 @@
         <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="L7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="M7" t="s">
         <v>168</v>
@@ -4002,42 +4351,42 @@
         <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="F8" t="s">
         <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="I8" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="K8" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="L8" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="M8" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="I9" t="s">
         <v>149</v>
       </c>
       <c r="K9" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="L9" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="M9" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -4045,13 +4394,13 @@
         <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="L10" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M10" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4059,46 +4408,46 @@
         <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="L11" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="M11" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="L12" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="M12" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="L13" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="M13" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="L14" t="s">
         <v>148</v>
       </c>
       <c r="M14" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4106,21 +4455,21 @@
         <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="M15" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="L16" t="s">
         <v>130</v>
       </c>
       <c r="M16" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="11:13" x14ac:dyDescent="0.25">
@@ -4128,32 +4477,32 @@
         <v>129</v>
       </c>
       <c r="L17" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="M17" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="L18" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="M18" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="L19" t="s">
         <v>201</v>
       </c>
       <c r="M19" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="11:13" x14ac:dyDescent="0.25">
@@ -4164,7 +4513,7 @@
         <v>134</v>
       </c>
       <c r="M20" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="11:13" x14ac:dyDescent="0.25">
@@ -4172,18 +4521,18 @@
         <v>134</v>
       </c>
       <c r="L21" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="M21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="M22" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="11:13" x14ac:dyDescent="0.25">
@@ -4198,17 +4547,17 @@
     </row>
     <row r="25" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M25" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M26" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M27" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -4223,29 +4572,32 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="3" max="3" width="32.42578125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="37.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="79.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="61.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4256,76 +4608,215 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>524</v>
+        <v>562</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>338</v>
+      </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>511</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -4353,7 +4844,7 @@
         <v>188</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4391,7 +4882,7 @@
         <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4470,11 +4961,11 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4499,16 +4990,16 @@
         <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="E1" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="G1" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4522,39 +5013,39 @@
         <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="E2" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F2" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G2" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>556</v>
+      <c r="B3" s="6" t="s">
+        <v>605</v>
       </c>
       <c r="C3" t="s">
         <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="E3" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F3" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G3" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4562,22 +5053,22 @@
         <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="E4" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F4" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G4" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4585,22 +5076,22 @@
         <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>542</v>
       </c>
       <c r="C5" t="s">
         <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="E5" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F5" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G5" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4608,713 +5099,690 @@
         <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>559</v>
+        <v>606</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E6" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F6" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G6" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>592</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="D7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="E7" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F7" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="G7" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>532</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>534</v>
       </c>
       <c r="D8" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="E8" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F8" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="G8" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>559</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>535</v>
       </c>
       <c r="D9" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E9" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F9" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="G9" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>234</v>
+        <v>593</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E10" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F10" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="G10" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E11" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F11" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="G11" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E12" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F12" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="G12" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B13" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="E13" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F13" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G13" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B14" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D14" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E14" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F14" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G14" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B15" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D15" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="E15" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F15" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G15" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>468</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>553</v>
+        <v>452</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>576</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D16" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="E16" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F16" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G16" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B17" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D17" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="E17" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F17" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G17" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D18" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="E18" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F18" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G18" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B19" t="s">
-        <v>496</v>
+        <v>563</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="E19" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F19" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="G19" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B20" t="s">
-        <v>497</v>
+        <v>255</v>
       </c>
       <c r="C20" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D20" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="E20" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F20" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G20" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B21" t="s">
-        <v>264</v>
+        <v>564</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="E21" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="F21" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G21" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>459</v>
+      </c>
+      <c r="B22" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" t="s">
+        <v>440</v>
+      </c>
+      <c r="F22" t="s">
         <v>475</v>
       </c>
-      <c r="B22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D22" t="s">
-        <v>432</v>
-      </c>
-      <c r="E22" t="s">
-        <v>456</v>
-      </c>
-      <c r="F22" t="s">
-        <v>492</v>
-      </c>
       <c r="G22" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="E23" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="F23" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G23" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>461</v>
+      </c>
+      <c r="B24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" t="s">
+        <v>419</v>
+      </c>
+      <c r="E24" t="s">
+        <v>440</v>
+      </c>
+      <c r="F24" t="s">
+        <v>475</v>
+      </c>
+      <c r="G24" t="s">
         <v>477</v>
-      </c>
-      <c r="B24" t="s">
-        <v>267</v>
-      </c>
-      <c r="C24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D24" t="s">
-        <v>434</v>
-      </c>
-      <c r="E24" t="s">
-        <v>456</v>
-      </c>
-      <c r="F24" t="s">
-        <v>492</v>
-      </c>
-      <c r="G24" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C25" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E25" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="F25" t="s">
-        <v>492</v>
-      </c>
-      <c r="G25" t="s">
-        <v>494</v>
+        <v>475</v>
+      </c>
+      <c r="G25" t="str">
+        <f>$G$20</f>
+        <v>positive</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B26" t="s">
-        <v>269</v>
+        <v>550</v>
       </c>
       <c r="C26" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E26" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="F26" t="s">
-        <v>492</v>
-      </c>
-      <c r="G26" t="str">
-        <f>$G$21</f>
-        <v>positive</v>
+        <v>475</v>
+      </c>
+      <c r="G26" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B27" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="E27" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F27" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G27" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B28" t="s">
-        <v>271</v>
+        <v>545</v>
       </c>
       <c r="C28" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D28" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="E28" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F28" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G28" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>482</v>
+      <c r="A29" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C29" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D29" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E29" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F29" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G29" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B30" t="s">
-        <v>273</v>
+        <v>578</v>
       </c>
       <c r="C30" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="E30" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F30" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G30" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B31" t="s">
-        <v>555</v>
+        <v>283</v>
       </c>
       <c r="C31" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D31" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="E31" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F31" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G31" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>594</v>
       </c>
       <c r="C32" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D32" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="E32" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F32" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G32" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C33" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D33" t="s">
+        <v>454</v>
+      </c>
+      <c r="E33" t="s">
         <v>441</v>
       </c>
-      <c r="E33" t="s">
-        <v>457</v>
-      </c>
       <c r="F33" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G33" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>569</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D34" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="E34" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F34" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G34" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C35" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D35" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="E35" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F35" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G35" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B36" t="s">
-        <v>277</v>
-      </c>
-      <c r="C36" t="s">
-        <v>262</v>
-      </c>
-      <c r="D36" t="s">
-        <v>443</v>
-      </c>
-      <c r="E36" t="s">
-        <v>457</v>
-      </c>
-      <c r="F36" t="s">
-        <v>492</v>
-      </c>
-      <c r="G36" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\valuation_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF211E51-691D-467F-96F1-B6743F326200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9192ED94-920F-4217-90AC-D66BADBC7123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="2" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="BS tags" sheetId="16" r:id="rId1"/>
@@ -21,26 +21,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Formula!$A$1:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="322">
   <si>
     <t>is.net_revenue</t>
   </si>
@@ -1004,6 +995,9 @@
   </si>
   <si>
     <t>PE Ratio</t>
+  </si>
+  <si>
+    <t>RevenueFromContractWithCustomerIncludingAssessedTax</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1005,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1066,18 +1060,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1087,7 +1081,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1831,8 +1824,8 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,6 +2065,9 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>321</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>303</v>
       </c>
@@ -2089,14 +2085,14 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="8" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
@@ -2106,7 +2102,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
@@ -2129,7 +2125,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
@@ -2152,7 +2148,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2175,7 +2171,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
@@ -2198,7 +2194,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
@@ -2221,7 +2217,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
@@ -2244,7 +2240,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>128</v>
       </c>
       <c r="B7" t="s">
@@ -2267,7 +2263,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" t="s">
         <v>129</v>
       </c>
       <c r="B8" t="s">
@@ -2290,7 +2286,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" t="s">
         <v>130</v>
       </c>
       <c r="B9" t="s">
@@ -2313,7 +2309,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" t="s">
         <v>131</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2336,7 +2332,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" t="s">
         <v>132</v>
       </c>
       <c r="B11" t="s">
@@ -2359,7 +2355,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" t="s">
         <v>133</v>
       </c>
       <c r="B12" t="s">
@@ -2382,7 +2378,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>134</v>
       </c>
       <c r="B13" t="s">
@@ -2405,7 +2401,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" t="s">
         <v>135</v>
       </c>
       <c r="B14" t="s">
@@ -2428,7 +2424,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" t="s">
         <v>136</v>
       </c>
       <c r="B15" t="s">
@@ -2451,7 +2447,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" t="s">
         <v>137</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2474,7 +2470,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" t="s">
         <v>138</v>
       </c>
       <c r="B17" t="s">
@@ -2497,7 +2493,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" t="s">
         <v>140</v>
       </c>
       <c r="B18" t="s">
@@ -2520,7 +2516,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" t="s">
         <v>141</v>
       </c>
       <c r="B19" t="s">
@@ -2543,7 +2539,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" t="s">
         <v>142</v>
       </c>
       <c r="B20" t="s">
@@ -2566,7 +2562,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" t="s">
         <v>143</v>
       </c>
       <c r="B21" t="s">
@@ -2589,7 +2585,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" t="s">
         <v>144</v>
       </c>
       <c r="B22" t="s">
@@ -2612,7 +2608,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" t="s">
         <v>145</v>
       </c>
       <c r="B23" t="s">
@@ -2635,7 +2631,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" t="s">
         <v>146</v>
       </c>
       <c r="B24" t="s">
@@ -2658,7 +2654,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" t="s">
         <v>147</v>
       </c>
       <c r="B25" t="s">
@@ -2682,7 +2678,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" t="s">
         <v>148</v>
       </c>
       <c r="B26" t="s">
@@ -2705,7 +2701,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" t="s">
         <v>149</v>
       </c>
       <c r="B27" t="s">
@@ -2728,7 +2724,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" t="s">
         <v>150</v>
       </c>
       <c r="B28" t="s">
@@ -2751,7 +2747,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" t="s">
         <v>151</v>
       </c>
       <c r="B29" t="s">
@@ -2774,7 +2770,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" t="s">
         <v>152</v>
       </c>
       <c r="B30" t="s">
@@ -2797,7 +2793,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" t="s">
         <v>153</v>
       </c>
       <c r="B31" t="s">
@@ -2820,7 +2816,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" t="s">
         <v>154</v>
       </c>
       <c r="B32" t="s">
@@ -2843,7 +2839,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" t="s">
         <v>155</v>
       </c>
       <c r="B33" t="s">
@@ -2866,7 +2862,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" t="s">
         <v>156</v>
       </c>
       <c r="B34" t="s">
@@ -2889,7 +2885,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" t="s">
         <v>157</v>
       </c>
       <c r="B35" t="s">
@@ -2912,7 +2908,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" t="s">
         <v>320</v>
       </c>
       <c r="B36" t="s">

--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9192ED94-920F-4217-90AC-D66BADBC7123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12362070-8DC6-43B7-9E33-2A5EE7C5DCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="2" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12362070-8DC6-43B7-9E33-2A5EE7C5DCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C9F9B-2E23-40D9-BB11-C06166D49C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="2" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="BS tags" sheetId="16" r:id="rId1"/>
@@ -717,9 +717,6 @@
     <t>((q_df.loc[index,'bs.total_shareholder_equity']+abs(ad(q_df,index,'bs.treasury_stock')))-(q_df.loc[index-1,'bs.total_shareholder_equity']+abs(ad(q_df,index-1,'bs.treasury_stock'))))/(q_df.loc[index-1,'bs.total_shareholder_equity']+abs(ad(q_df,index-1,'bs.treasury_stock')))</t>
   </si>
   <si>
-    <t>(q_df.loc[index,'bs.cash_n_equivalent']+ ad(q_df,index,'bs.st_investment')+q_df.loc[index,'bs.account_receivable'])/q_df.loc[index,'bs.total_current_liabilities']</t>
-  </si>
-  <si>
     <t>(q_df.loc[index, 'bs.cash_n_equivalent'] + ad(q_df,index,'bs.st_investment'))/q_df.loc[index, 'bs.total_current_liabilities']</t>
   </si>
   <si>
@@ -998,6 +995,9 @@
   </si>
   <si>
     <t>RevenueFromContractWithCustomerIncludingAssessedTax</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'bs.cash_n_equivalent']+ ad(q_df,index,'bs.st_investment')+ad(q_df.loc[index,'bs.account_receivable']))/q_df.loc[index,'bs.total_current_liabilities']</t>
   </si>
 </sst>
 </file>
@@ -1406,8 +1406,8 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1444,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>13</v>
@@ -1465,19 +1465,19 @@
         <v>208</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="O1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>19</v>
@@ -1509,7 +1509,7 @@
         <v>165</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>166</v>
@@ -1539,10 +1539,10 @@
         <v>216</v>
       </c>
       <c r="O2" t="s">
+        <v>255</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>173</v>
@@ -1571,13 +1571,13 @@
         <v>204</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K3" t="s">
         <v>211</v>
@@ -1586,19 +1586,19 @@
         <v>215</v>
       </c>
       <c r="M3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1612,29 +1612,29 @@
         <v>205</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K4"/>
       <c r="L4" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M4" t="s">
         <v>213</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>207</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -1679,12 +1679,12 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>221</v>
@@ -1695,15 +1695,15 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -1711,12 +1711,12 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -1824,8 +1824,8 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,10 +1858,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1870,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>31</v>
@@ -1882,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
@@ -1905,10 +1905,10 @@
         <v>184</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>185</v>
@@ -1917,7 +1917,7 @@
         <v>186</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>187</v>
@@ -1929,7 +1929,7 @@
         <v>189</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>190</v>
@@ -1949,34 +1949,34 @@
         <v>194</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>225</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -1987,45 +1987,45 @@
         <v>196</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N5" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -2033,43 +2033,43 @@
         <v>182</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2085,9 +2085,9 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,7 +2152,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -2221,7 +2221,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -2244,7 +2244,7 @@
         <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
         <v>218</v>
@@ -2290,7 +2290,7 @@
         <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
         <v>220</v>
@@ -2313,7 +2313,7 @@
         <v>131</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -2382,7 +2382,7 @@
         <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -2405,7 +2405,7 @@
         <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -2428,7 +2428,7 @@
         <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>52</v>
@@ -2451,7 +2451,7 @@
         <v>137</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>54</v>
@@ -2474,7 +2474,7 @@
         <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>53</v>
@@ -2520,7 +2520,7 @@
         <v>141</v>
       </c>
       <c r="B19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
@@ -2566,7 +2566,7 @@
         <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
         <v>58</v>
@@ -2589,7 +2589,7 @@
         <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
         <v>59</v>
@@ -2682,7 +2682,7 @@
         <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -2728,7 +2728,7 @@
         <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
@@ -2774,7 +2774,7 @@
         <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -2820,7 +2820,7 @@
         <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C32" t="s">
         <v>69</v>
@@ -2866,7 +2866,7 @@
         <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
@@ -2909,19 +2909,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F36" t="s">
         <v>160</v>

--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C9F9B-2E23-40D9-BB11-C06166D49C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2B4D29-1B53-46BE-BF8C-E9DA98F481A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="BS tags" sheetId="16" r:id="rId1"/>
@@ -21,10 +21,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Formula!$A$1:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -997,7 +1006,7 @@
     <t>RevenueFromContractWithCustomerIncludingAssessedTax</t>
   </si>
   <si>
-    <t>(q_df.loc[index,'bs.cash_n_equivalent']+ ad(q_df,index,'bs.st_investment')+ad(q_df.loc[index,'bs.account_receivable']))/q_df.loc[index,'bs.total_current_liabilities']</t>
+    <t>(q_df.loc[index,'bs.cash_n_equivalent']+ ad(q_df,index,'bs.st_investment')+ad(q_df,index,'bs.account_receivable'))/q_df.loc[index,'bs.total_current_liabilities']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1014,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1060,18 +1069,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2085,9 +2094,9 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\valuation_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2B4D29-1B53-46BE-BF8C-E9DA98F481A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C075A7-4F2E-4D4C-99EE-D8C5A3B885BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="BS tags" sheetId="16" r:id="rId1"/>
@@ -21,26 +21,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Formula!$A$1:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="321">
   <si>
     <t>is.net_revenue</t>
   </si>
@@ -1004,9 +995,6 @@
   </si>
   <si>
     <t>RevenueFromContractWithCustomerIncludingAssessedTax</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.cash_n_equivalent']+ ad(q_df,index,'bs.st_investment')+ad(q_df,index,'bs.account_receivable'))/q_df.loc[index,'bs.total_current_liabilities']</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1002,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1069,18 +1057,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2094,9 +2082,9 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2379,7 @@
         <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>

--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C075A7-4F2E-4D4C-99EE-D8C5A3B885BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81301F85-7B37-4019-80E8-A882F81C4E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="BS tags" sheetId="16" r:id="rId1"/>
@@ -21,17 +21,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Formula!$A$1:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="322">
   <si>
     <t>is.net_revenue</t>
   </si>
@@ -995,6 +1004,9 @@
   </si>
   <si>
     <t>RevenueFromContractWithCustomerIncludingAssessedTax</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index, 'bs.cash_n_equivalent'] + ad(q_df,index,'bs.st_investment') +ad(q_df,index,'bs.account_receivable'))/q_df.loc[index, 'bs.total_current_liabilities']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1014,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1057,18 +1069,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1404,7 +1416,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2096,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,7 +2391,7 @@
         <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>

--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81301F85-7B37-4019-80E8-A882F81C4E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9656DBFC-6F6D-4045-848E-9A7A1958485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
@@ -988,9 +988,6 @@
     <t>PayablesToTradeBrokersDealersAndClearingOrganizations</t>
   </si>
   <si>
-    <t>Valuation Ratio</t>
-  </si>
-  <si>
     <t>price_earnings_ratio</t>
   </si>
   <si>
@@ -1007,6 +1004,9 @@
   </si>
   <si>
     <t>(q_df.loc[index, 'bs.cash_n_equivalent'] + ad(q_df,index,'bs.st_investment') +ad(q_df,index,'bs.account_receivable'))/q_df.loc[index, 'bs.total_current_liabilities']</t>
+  </si>
+  <si>
+    <t>Custom Ratio</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>302</v>
@@ -2094,9 +2094,9 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2391,7 @@
         <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -2918,19 +2918,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E36" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F36" t="s">
         <v>160</v>

--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\valuation_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81301F85-7B37-4019-80E8-A882F81C4E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DCC1BD-9E08-420F-AB9D-89F29280205E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="BS tags" sheetId="16" r:id="rId1"/>
@@ -21,19 +21,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Formula!$A$1:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -264,9 +255,6 @@
     <t>(q_df.loc[index,'bs.total_assets']+q_df.loc[index-1,'bs.total_assets'])/(q_df.loc[index,'bs.total_shareholder_equity']+q_df.loc[index-1,'bs.total_shareholder_equity'])</t>
   </si>
   <si>
-    <t>(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])/q_df.loc[index,'is.net_revenue']</t>
-  </si>
-  <si>
     <t>q_df.loc[index,'is.net_income']/q_df.loc[index,'is.net_revenue']</t>
   </si>
   <si>
@@ -1007,6 +995,9 @@
   </si>
   <si>
     <t>(q_df.loc[index, 'bs.cash_n_equivalent'] + ad(q_df,index,'bs.st_investment') +ad(q_df,index,'bs.account_receivable'))/q_df.loc[index, 'bs.total_current_liabilities']</t>
+  </si>
+  <si>
+    <t>(((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])+((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization']))/q_df.loc[index,'is.net_revenue'] if ad(q_df,index,'is.cost_of_sales')==0 else (q_df.loc[index,'is.net_revenue']-ad(q_df,index,'is.cost_of_sales'))/q_df.loc[index,'is.net_revenue']</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1005,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1069,18 +1060,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1453,7 +1444,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>13</v>
@@ -1471,22 +1462,22 @@
         <v>21</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="O1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>19</v>
@@ -1495,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>23</v>
@@ -1506,155 +1497,155 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="K2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="O2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="O2" t="s">
-        <v>255</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K4"/>
       <c r="L4" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>27</v>
@@ -1666,21 +1657,21 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -1688,15 +1679,15 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -1704,15 +1695,15 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -1720,12 +1711,12 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -1736,7 +1727,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1782,43 +1773,43 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" t="s">
         <v>180</v>
-      </c>
-      <c r="E2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1825,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,10 +1858,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1879,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>31</v>
@@ -1891,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
@@ -1905,180 +1896,180 @@
     </row>
     <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N5" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2094,9 +2085,9 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,16 +2112,16 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" t="s">
-        <v>121</v>
-      </c>
       <c r="F1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
         <v>158</v>
-      </c>
-      <c r="G1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2144,16 +2135,16 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2161,22 +2152,22 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2184,22 +2175,22 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2207,22 +2198,22 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,119 +2221,119 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" t="s">
         <v>161</v>
-      </c>
-      <c r="G9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -2351,21 +2342,21 @@
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" t="s">
         <v>161</v>
-      </c>
-      <c r="G11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -2374,136 +2365,136 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" t="s">
         <v>161</v>
-      </c>
-      <c r="G12" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -2512,174 +2503,174 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" t="s">
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
         <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25" t="str">
         <f>$G$20</f>
@@ -2688,255 +2679,255 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C32" t="s">
         <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\valuation_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9656DBFC-6F6D-4045-848E-9A7A1958485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF72787-842A-41C4-814B-229E67226609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="BS tags" sheetId="16" r:id="rId1"/>
@@ -21,19 +21,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Formula!$A$1:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -264,9 +255,6 @@
     <t>(q_df.loc[index,'bs.total_assets']+q_df.loc[index-1,'bs.total_assets'])/(q_df.loc[index,'bs.total_shareholder_equity']+q_df.loc[index-1,'bs.total_shareholder_equity'])</t>
   </si>
   <si>
-    <t>(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])/q_df.loc[index,'is.net_revenue']</t>
-  </si>
-  <si>
     <t>q_df.loc[index,'is.net_income']/q_df.loc[index,'is.net_revenue']</t>
   </si>
   <si>
@@ -1007,6 +995,9 @@
   </si>
   <si>
     <t>Custom Ratio</t>
+  </si>
+  <si>
+    <t>(((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])+((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization']))/q_df.loc[index,'is.net_revenue'] if ad(q_df,index,'is.cost_of_sales')==0 else (q_df.loc[index,'is.net_revenue']-ad(q_df,index,'is.cost_of_sales'))/q_df.loc[index,'is.net_revenue']</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1005,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1069,18 +1060,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1453,7 +1444,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>13</v>
@@ -1471,22 +1462,22 @@
         <v>21</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="O1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>19</v>
@@ -1495,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>23</v>
@@ -1506,155 +1497,155 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="K2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="O2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="O2" t="s">
-        <v>255</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K4"/>
       <c r="L4" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>27</v>
@@ -1666,21 +1657,21 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -1688,15 +1679,15 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -1704,15 +1695,15 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -1720,12 +1711,12 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -1736,7 +1727,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1782,43 +1773,43 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" t="s">
         <v>180</v>
-      </c>
-      <c r="E2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1867,10 +1858,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1879,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>31</v>
@@ -1891,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
@@ -1905,180 +1896,180 @@
     </row>
     <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N5" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2094,9 +2085,9 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,16 +2112,16 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" t="s">
-        <v>121</v>
-      </c>
       <c r="F1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
         <v>158</v>
-      </c>
-      <c r="G1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2144,16 +2135,16 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2161,22 +2152,22 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2184,22 +2175,22 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2207,22 +2198,22 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,119 +2221,119 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" t="s">
         <v>161</v>
-      </c>
-      <c r="G9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -2351,21 +2342,21 @@
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" t="s">
         <v>161</v>
-      </c>
-      <c r="G11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -2374,136 +2365,136 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" t="s">
         <v>161</v>
-      </c>
-      <c r="G12" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -2512,174 +2503,174 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" t="s">
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
         <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25" t="str">
         <f>$G$20</f>
@@ -2688,255 +2679,255 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C32" t="s">
         <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF72787-842A-41C4-814B-229E67226609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796F25B4-1C53-4763-834C-8ECB801A875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
@@ -30,6 +30,169 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Chris</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{4174E2C9-3D97-4162-8761-4A8B66D2630D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Chris:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+If COGS is not found, (REV-EBITDA) will be used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{82E7F21A-EE17-497A-B9B0-ABF0D555BF02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Chris:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+If COGS is not found, (REV-EBITDA) will be used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{4088D169-ACE8-4294-9914-3E4498FD57AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Chris:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If COGS is not found, (REV-EBITDA) will be used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{A3A4C584-C166-4513-B0F5-BCD8E442B275}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If COGS is not found, (REV-EBITDA) will be used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{67D73427-C52F-4917-B492-C368E1235C43}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If COGS is not found, (REV-EBITDA) will be used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{960E011B-05D6-48FC-BA54-C660A81240B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If COGS is not found, (REV-EBITDA) will be used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="322">
   <si>
@@ -264,9 +427,6 @@
     <t>q_df.loc[index,'is.net_income']/((q_df.loc[index,'bs.total_shareholder_equity']+q_df.loc[index-1,'bs.total_shareholder_equity'])/2)</t>
   </si>
   <si>
-    <t>q_df.loc[index,'is.r_and_d']/(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])</t>
-  </si>
-  <si>
     <t>(q_df.loc[index,'bs.cash_n_equivalent']-q_df.loc[index-1,'bs.cash_n_equivalent'])/q_df.loc[index-1,'bs.cash_n_equivalent']</t>
   </si>
   <si>
@@ -717,9 +877,6 @@
     <t>(q_df.loc[index, 'bs.cash_n_equivalent'] + ad(q_df,index,'bs.st_investment'))/q_df.loc[index, 'bs.total_current_liabilities']</t>
   </si>
   <si>
-    <t>((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization'])/(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])</t>
-  </si>
-  <si>
     <t>SellingAndMarketingExpense</t>
   </si>
   <si>
@@ -732,9 +889,6 @@
     <t>GeneralAndAdministrativeExpense</t>
   </si>
   <si>
-    <t>((ad(q_df,index,'is.selling')+ad(q_df,index,'is.g_and_a')) if ad(q_df,index,'is.sg_and_a')==0 else q_df.loc[index,'is.sg_and_a'])/(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])</t>
-  </si>
-  <si>
     <t>CashCashEquivalentsRestrictedCashAndRestrictedCashEquivalents</t>
   </si>
   <si>
@@ -858,13 +1012,6 @@
     <t>bs.inventories_pc</t>
   </si>
   <si>
-    <t>365*(((ad(q_df,index,'bs.inventories')+ad(q_df,index,'bs.inventories_pc'))+(ad(q_df,index-1,'bs.inventories')+ad(q_df,index-1,'bs.inventories_pc')))/2)/q_df.loc[index,'is.cost_of_sales']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(365*(((ad(q_df,index,'bs.inventories')+ad(q_df,index,'bs.inventories_pc'))+(ad(q_df,index-1,'bs.inventories')+ad(q_df,index-1,'bs.inventories_pc')))/2)/q_df.loc[index,'is.cost_of_sales'])+(365*((q_df.loc[index,'bs.account_receivable']+q_df.loc[index-1,'bs.account_receivable'])/2)/q_df.loc[index,'is.net_revenue'])-365*((ad(q_df,index,'bs.accounts_payable')+ad(q_df,index-1,'bs.accounts_payable'))/2)/q_df.loc[index,'is.net_revenue']
-</t>
-  </si>
-  <si>
     <t>((ad(q_df,index,'bs.inventories')+ad(q_df,index,'bs.inventories_pc'))-(ad(q_df,index-1,'bs.inventories')+ad(q_df,index-1,'bs.inventories_pc')))/(ad(q_df,index-1,'bs.inventories')+ad(q_df,index-1,'bs.inventories_pc'))</t>
   </si>
   <si>
@@ -997,7 +1144,22 @@
     <t>Custom Ratio</t>
   </si>
   <si>
-    <t>(((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])+((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization']))/q_df.loc[index,'is.net_revenue'] if ad(q_df,index,'is.cost_of_sales')==0 else (q_df.loc[index,'is.net_revenue']-ad(q_df,index,'is.cost_of_sales'))/q_df.loc[index,'is.net_revenue']</t>
+    <t>365*(((ad(q_df,index,'bs.inventories')+ad(q_df,index,'bs.inventories_pc'))+(ad(q_df,index-1,'bs.inventories')+ad(q_df,index-1,'bs.inventories_pc')))/2)/((q_df.loc[index,'is.net_revenue']-(((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])+((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization']))) if ad(q_df,index,'is.cost_of_sales')==0 else ad(q_df,index,'is.cost_of_sales'))</t>
+  </si>
+  <si>
+    <t>(365*(((ad(q_df,index,'bs.inventories')+ad(q_df,index,'bs.inventories_pc'))+(ad(q_df,index-1,'bs.inventories')+ad(q_df,index-1,'bs.inventories_pc')))/2)/((q_df.loc[index,'is.net_revenue']-(((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])+((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization']))) if ad(q_df,index,'is.cost_of_sales')==0 else ad(q_df,index,'is.cost_of_sales')))+(365*((q_df.loc[index,'bs.account_receivable']+q_df.loc[index-1,'bs.account_receivable'])/2)/q_df.loc[index,'is.net_revenue'])-(365*((ad(q_df,index,'bs.accounts_payable')+ad(q_df,index-1,'bs.accounts_payable'))/2)/q_df.loc[index,'is.net_revenue'])</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'is.net_revenue'] - ((q_df.loc[index,'is.net_revenue']-(((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])+((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization']))) if ad(q_df,index,'is.cost_of_sales')==0 else ad(q_df,index,'is.cost_of_sales')))/q_df.loc[index,'is.net_revenue']</t>
+  </si>
+  <si>
+    <t>((ad(q_df,index,'is.selling')+ad(q_df,index,'is.g_and_a')) if ad(q_df,index,'is.sg_and_a')==0 else q_df.loc[index,'is.sg_and_a'])/(q_df.loc[index,'is.net_revenue'] - ((q_df.loc[index,'is.net_revenue']-(((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])+((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization']))) if ad(q_df,index,'is.cost_of_sales')==0 else ad(q_df,index,'is.cost_of_sales')))</t>
+  </si>
+  <si>
+    <t>q_df.loc[index,'is.r_and_d']/(q_df.loc[index,'is.net_revenue'] - ((q_df.loc[index,'is.net_revenue']-(((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])+((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization']))) if ad(q_df,index,'is.cost_of_sales')==0 else ad(q_df,index,'is.cost_of_sales')))</t>
+  </si>
+  <si>
+    <t>((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization'])/(q_df.loc[index,'is.net_revenue'] - ((q_df.loc[index,'is.net_revenue']-(((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])+((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization']))) if ad(q_df,index,'is.cost_of_sales')==0 else ad(q_df,index,'is.cost_of_sales')))</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1033,6 +1195,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1407,7 +1595,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1632,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>13</v>
@@ -1462,22 +1650,22 @@
         <v>21</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>19</v>
@@ -1486,7 +1674,7 @@
         <v>20</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>23</v>
@@ -1497,155 +1685,155 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" t="s">
+        <v>210</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="K2" t="s">
-        <v>213</v>
-      </c>
-      <c r="L2" t="s">
-        <v>211</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="O2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="O2" t="s">
-        <v>254</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K4"/>
       <c r="L4" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>27</v>
@@ -1657,21 +1845,21 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -1679,15 +1867,15 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -1695,15 +1883,15 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -1711,12 +1899,12 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8" s="6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -1727,7 +1915,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -1773,43 +1961,43 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
         <v>179</v>
-      </c>
-      <c r="E2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1858,10 +2046,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1870,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>31</v>
@@ -1882,7 +2070,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
@@ -1896,180 +2084,180 @@
     </row>
     <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="O6" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2079,15 +2267,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6085D-466B-40F3-BD6F-CEE4B7C0DEBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6085D-466B-40F3-BD6F-CEE4B7C0DEBD}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,16 +2300,16 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
-        <v>120</v>
-      </c>
       <c r="F1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" t="s">
         <v>157</v>
-      </c>
-      <c r="G1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2135,16 +2323,16 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2152,22 +2340,22 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2175,22 +2363,22 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2198,22 +2386,22 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2221,119 +2409,119 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>129</v>
       </c>
-      <c r="B9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>130</v>
-      </c>
       <c r="B10" s="5" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -2342,21 +2530,21 @@
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" t="s">
         <v>160</v>
-      </c>
-      <c r="G11" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -2365,136 +2553,136 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" t="s">
         <v>160</v>
-      </c>
-      <c r="G12" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -2503,113 +2691,113 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C21" t="s">
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s">
         <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -2618,21 +2806,21 @@
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -2641,21 +2829,21 @@
         <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
@@ -2664,13 +2852,13 @@
         <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G25" t="str">
         <f>$G$20</f>
@@ -2679,258 +2867,259 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="C27" t="s">
         <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s">
         <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D36" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" t="s">
         <v>315</v>
       </c>
-      <c r="D36" t="s">
-        <v>314</v>
-      </c>
-      <c r="E36" t="s">
-        <v>320</v>
-      </c>
       <c r="F36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796F25B4-1C53-4763-834C-8ECB801A875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22C0591-AF6A-482A-BA2F-D8CAE192E3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="BS tags" sheetId="16" r:id="rId1"/>
@@ -44,7 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris:</t>
         </r>
@@ -53,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 If COGS is not found, (REV-EBITDA) will be used</t>
@@ -68,7 +68,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris:</t>
         </r>
@@ -77,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 If COGS is not found, (REV-EBITDA) will be used</t>
@@ -92,7 +92,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris:</t>
         </r>
@@ -101,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="324">
   <si>
     <t>is.net_revenue</t>
   </si>
@@ -1160,6 +1160,12 @@
   </si>
   <si>
     <t>((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization'])/(q_df.loc[index,'is.net_revenue'] - ((q_df.loc[index,'is.net_revenue']-(((ad(q_df,index,'is.ebt')+abs(ad(q_df,index,'is.interest_expense'))) if ad(q_df,index,'is.operating_income')==0 else q_df.loc[index,'is.operating_income'])+((ad(q_df,index,'cfs.depreciation')+ad(q_df,index,'cfs.amortization')) if ad(q_df,index,'cfs.depreciation_n_amortization')==0 else q_df.loc[index,'cfs.depreciation_n_amortization']))) if ad(q_df,index,'is.cost_of_sales')==0 else ad(q_df,index,'is.cost_of_sales')))</t>
+  </si>
+  <si>
+    <t>CommercialPaperAndBankLoans</t>
+  </si>
+  <si>
+    <t>InterestAndOtherBorrowingExpense</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,23 +1206,10 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1594,8 +1587,8 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,11 +1808,14 @@
       <c r="M4" t="s">
         <v>211</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>291</v>
+      <c r="N4" t="s">
+        <v>322</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>301</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>277</v>
@@ -1842,7 +1838,6 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5"/>
       <c r="P5"/>
       <c r="Q5" s="6" t="s">
         <v>279</v>
@@ -1909,7 +1904,6 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-      <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
     </row>
@@ -2012,8 +2006,8 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,6 +2245,9 @@
       <c r="B8" s="3" t="s">
         <v>280</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2273,9 +2270,9 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22C0591-AF6A-482A-BA2F-D8CAE192E3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84DD6CE-44B9-4BA0-AC88-7DB49305F18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="2" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="BS tags" sheetId="16" r:id="rId1"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="325">
   <si>
     <t>is.net_revenue</t>
   </si>
@@ -1166,6 +1166,9 @@
   </si>
   <si>
     <t>InterestAndOtherBorrowingExpense</t>
+  </si>
+  <si>
+    <t>ProfitLoss</t>
   </si>
 </sst>
 </file>
@@ -1587,8 +1590,8 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,8 +2009,8 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,6 +2182,9 @@
       </c>
       <c r="I4" s="3" t="s">
         <v>267</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>275</v>

--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84DD6CE-44B9-4BA0-AC88-7DB49305F18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE038BE-6E55-4131-A666-D109C6532A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="2" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="BS tags" sheetId="16" r:id="rId1"/>
@@ -21,10 +21,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Formula!$A$1:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -194,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="325">
   <si>
     <t>is.net_revenue</t>
   </si>
@@ -1123,9 +1132,6 @@
     <t>PayablesToTradeBrokersDealersAndClearingOrganizations</t>
   </si>
   <si>
-    <t>price_earnings_ratio</t>
-  </si>
-  <si>
     <t>Stock_Price/curr_eps</t>
   </si>
   <si>
@@ -1169,6 +1175,9 @@
   </si>
   <si>
     <t>ProfitLoss</t>
+  </si>
+  <si>
+    <t>pe_ratio</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1244,18 +1253,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1812,7 +1821,7 @@
         <v>211</v>
       </c>
       <c r="N4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>301</v>
@@ -2009,7 +2018,7 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -2184,7 +2193,7 @@
         <v>267</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>275</v>
@@ -2252,12 +2261,12 @@
         <v>280</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>296</v>
@@ -2276,9 +2285,9 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,7 +2444,7 @@
         <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
         <v>216</v>
@@ -2504,7 +2513,7 @@
         <v>129</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -2573,7 +2582,7 @@
         <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -2734,7 +2743,7 @@
         <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
@@ -2873,7 +2882,7 @@
         <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -2896,7 +2905,7 @@
         <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C27" t="s">
         <v>64</v>
@@ -2919,7 +2928,7 @@
         <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
@@ -3100,19 +3109,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D36" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F36" t="s">
         <v>158</v>
